--- a/scimagojr/scimagojr_2008.xlsx
+++ b/scimagojr/scimagojr_2008.xlsx
@@ -275,12 +275,12 @@
     <t>Lebanon</t>
   </si>
   <si>
+    <t>Philippines</t>
+  </si>
+  <si>
     <t>Kuwait</t>
   </si>
   <si>
-    <t>Philippines</t>
-  </si>
-  <si>
     <t>Puerto Rico</t>
   </si>
   <si>
@@ -311,21 +311,21 @@
     <t>Luxembourg</t>
   </si>
   <si>
+    <t>Tanzania</t>
+  </si>
+  <si>
     <t>Cameroon</t>
   </si>
   <si>
-    <t>Tanzania</t>
-  </si>
-  <si>
     <t>Ethiopia</t>
   </si>
   <si>
+    <t>Uganda</t>
+  </si>
+  <si>
     <t>Armenia</t>
   </si>
   <si>
-    <t>Uganda</t>
-  </si>
-  <si>
     <t>Azerbaijan</t>
   </si>
   <si>
@@ -368,12 +368,12 @@
     <t>Syrian Arab Republic</t>
   </si>
   <si>
+    <t>Côte d’Ivoire</t>
+  </si>
+  <si>
     <t>Botswana</t>
   </si>
   <si>
-    <t>Côte d’Ivoire</t>
-  </si>
-  <si>
     <t>Jamaica</t>
   </si>
   <si>
@@ -383,15 +383,15 @@
     <t>Trinidad and Tobago</t>
   </si>
   <si>
+    <t>Moldova</t>
+  </si>
+  <si>
+    <t>Zimbabwe</t>
+  </si>
+  <si>
     <t>Sudan</t>
   </si>
   <si>
-    <t>Zimbabwe</t>
-  </si>
-  <si>
-    <t>Moldova</t>
-  </si>
-  <si>
     <t>Malawi</t>
   </si>
   <si>
@@ -410,12 +410,12 @@
     <t>Bolivia</t>
   </si>
   <si>
+    <t>Zambia</t>
+  </si>
+  <si>
     <t>Libya</t>
   </si>
   <si>
-    <t>Zambia</t>
-  </si>
-  <si>
     <t>Mongolia</t>
   </si>
   <si>
@@ -500,12 +500,12 @@
     <t>Niger</t>
   </si>
   <si>
+    <t>Rwanda</t>
+  </si>
+  <si>
     <t>Grenada</t>
   </si>
   <si>
-    <t>Rwanda</t>
-  </si>
-  <si>
     <t>Togo</t>
   </si>
   <si>
@@ -521,36 +521,36 @@
     <t>Tajikistan</t>
   </si>
   <si>
+    <t>Eswatini</t>
+  </si>
+  <si>
     <t>French Guiana</t>
   </si>
   <si>
-    <t>Swaziland</t>
-  </si>
-  <si>
     <t>Greenland</t>
   </si>
   <si>
     <t>Reunion</t>
   </si>
   <si>
+    <t>Afghanistan</t>
+  </si>
+  <si>
+    <t>El Salvador</t>
+  </si>
+  <si>
     <t>Netherlands Antilles</t>
   </si>
   <si>
-    <t>Afghanistan</t>
-  </si>
-  <si>
-    <t>El Salvador</t>
+    <t>Honduras</t>
+  </si>
+  <si>
+    <t>Faroe Islands</t>
   </si>
   <si>
     <t>Guam</t>
   </si>
   <si>
-    <t>Honduras</t>
-  </si>
-  <si>
-    <t>Faroe Islands</t>
-  </si>
-  <si>
     <t>Bermuda</t>
   </si>
   <si>
@@ -560,12 +560,12 @@
     <t>Seychelles</t>
   </si>
   <si>
+    <t>Lesotho</t>
+  </si>
+  <si>
     <t>Haïti</t>
   </si>
   <si>
-    <t>Lesotho</t>
-  </si>
-  <si>
     <t>Angola</t>
   </si>
   <si>
@@ -590,28 +590,37 @@
     <t>Guyana</t>
   </si>
   <si>
+    <t>Sierra Leone</t>
+  </si>
+  <si>
+    <t>Bhutan</t>
+  </si>
+  <si>
+    <t>North Korea</t>
+  </si>
+  <si>
     <t>Guinea-Bissau</t>
   </si>
   <si>
-    <t>North Korea</t>
-  </si>
-  <si>
-    <t>Bhutan</t>
-  </si>
-  <si>
-    <t>Sierra Leone</t>
-  </si>
-  <si>
     <t>Suriname</t>
   </si>
   <si>
     <t>Cayman Islands</t>
   </si>
   <si>
+    <t>Timor-Leste</t>
+  </si>
+  <si>
+    <t>Falkland Islands (Malvinas)</t>
+  </si>
+  <si>
     <t>Bahamas</t>
   </si>
   <si>
-    <t>Falkland Islands (Malvinas)</t>
+    <t>Solomon Islands</t>
+  </si>
+  <si>
+    <t>Samoa</t>
   </si>
   <si>
     <t>Vanuatu</t>
@@ -620,16 +629,13 @@
     <t>San Marino</t>
   </si>
   <si>
-    <t>Solomon Islands</t>
-  </si>
-  <si>
-    <t>Samoa</t>
+    <t>American Samoa</t>
   </si>
   <si>
     <t>Virgin Islands (U.S.)</t>
   </si>
   <si>
-    <t>American Samoa</t>
+    <t>Burundi</t>
   </si>
   <si>
     <t>Liberia</t>
@@ -638,42 +644,36 @@
     <t>Saint Kitts and Nevis</t>
   </si>
   <si>
-    <t>Burundi</t>
-  </si>
-  <si>
     <t>Federated States of Micronesia</t>
   </si>
   <si>
+    <t>Antigua and Barbuda</t>
+  </si>
+  <si>
     <t>Gibraltar</t>
   </si>
   <si>
-    <t>Antigua and Barbuda</t>
+    <t>Maldives</t>
+  </si>
+  <si>
+    <t>Palau</t>
+  </si>
+  <si>
+    <t>Djibouti</t>
   </si>
   <si>
     <t>Virgin Islands (British)</t>
   </si>
   <si>
-    <t>Palau</t>
+    <t>Belize</t>
   </si>
   <si>
     <t>Cape Verde</t>
   </si>
   <si>
-    <t>Belize</t>
-  </si>
-  <si>
-    <t>Maldives</t>
-  </si>
-  <si>
-    <t>Djibouti</t>
-  </si>
-  <si>
     <t>Dominica</t>
   </si>
   <si>
-    <t>Timor-Leste</t>
-  </si>
-  <si>
     <t>Mayotte</t>
   </si>
   <si>
@@ -683,43 +683,58 @@
     <t>Somalia</t>
   </si>
   <si>
+    <t>Turkmenistan</t>
+  </si>
+  <si>
+    <t>Tonga</t>
+  </si>
+  <si>
     <t>Northern Mariana Islands</t>
   </si>
   <si>
-    <t>Tonga</t>
-  </si>
-  <si>
-    <t>Turkmenistan</t>
+    <t>Saint Lucia</t>
+  </si>
+  <si>
+    <t>Andorra</t>
   </si>
   <si>
     <t>Montserrat</t>
   </si>
   <si>
-    <t>Saint Lucia</t>
-  </si>
-  <si>
     <t>British Indian Ocean Territory</t>
   </si>
   <si>
-    <t>Andorra</t>
+    <t>Marshall Islands</t>
   </si>
   <si>
     <t>Saint Vincent and the Grenadines</t>
   </si>
   <si>
-    <t>Marshall Islands</t>
+    <t>Turks and Caicos Islands</t>
   </si>
   <si>
     <t>Norfolk Island</t>
   </si>
   <si>
+    <t>Nauru</t>
+  </si>
+  <si>
     <t>Comoros</t>
   </si>
   <si>
-    <t>Turks and Caicos Islands</t>
-  </si>
-  <si>
-    <t>Nauru</t>
+    <t>French Southern Territories</t>
+  </si>
+  <si>
+    <t>Wallis and Futuna</t>
+  </si>
+  <si>
+    <t>Republic of South Sudan</t>
+  </si>
+  <si>
+    <t>Tuvalu</t>
+  </si>
+  <si>
+    <t>South Georgia and the South Sandwich Islands</t>
   </si>
   <si>
     <t>Vatican City State</t>
@@ -728,28 +743,13 @@
     <t>Western Sahara</t>
   </si>
   <si>
+    <t>Aruba</t>
+  </si>
+  <si>
     <t>Saint Helena</t>
   </si>
   <si>
     <t>United States Minor Outlying Islands</t>
-  </si>
-  <si>
-    <t>Wallis and Futuna</t>
-  </si>
-  <si>
-    <t>South Georgia and the South Sandwich Islands</t>
-  </si>
-  <si>
-    <t>Aruba</t>
-  </si>
-  <si>
-    <t>Tuvalu</t>
-  </si>
-  <si>
-    <t>French Southern Territories</t>
-  </si>
-  <si>
-    <t>Republic of South Sudan</t>
   </si>
 </sst>
 </file>
@@ -893,22 +893,22 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>542623</v>
+        <v>550578</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>472354</v>
+        <v>473854</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>20659021</v>
+        <v>23388247</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>8803546</v>
+        <v>9625759</v>
       </c>
       <c r="H2" s="0" t="n">
-        <v>38.07</v>
+        <v>42.48</v>
       </c>
       <c r="I2" s="0" t="n">
-        <v>2711</v>
+        <v>3051</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="3">
@@ -922,22 +922,22 @@
         <v>12</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>261462</v>
+        <v>260862</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>258554</v>
+        <v>258420</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>3926331</v>
+        <v>4376907</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>2083562</v>
+        <v>2299267</v>
       </c>
       <c r="H3" s="0" t="n">
-        <v>15.02</v>
+        <v>16.78</v>
       </c>
       <c r="I3" s="0" t="n">
-        <v>1112</v>
+        <v>1333</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="4">
@@ -951,22 +951,22 @@
         <v>14</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>158693</v>
+        <v>160294</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>130463</v>
+        <v>130809</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>5714504</v>
+        <v>6467947</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>1226337</v>
+        <v>1328105</v>
       </c>
       <c r="H4" s="0" t="n">
-        <v>36.01</v>
+        <v>40.35</v>
       </c>
       <c r="I4" s="0" t="n">
-        <v>1707</v>
+        <v>1928</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="5">
@@ -980,22 +980,22 @@
         <v>14</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>138369</v>
+        <v>138982</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>124909</v>
+        <v>125489</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>4504235</v>
+        <v>5035643</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>1032956</v>
+        <v>1104623</v>
       </c>
       <c r="H5" s="0" t="n">
-        <v>32.55</v>
+        <v>36.23</v>
       </c>
       <c r="I5" s="0" t="n">
-        <v>1498</v>
+        <v>1690</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="6">
@@ -1009,22 +1009,22 @@
         <v>12</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>122912</v>
+        <v>123004</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>117467</v>
+        <v>117866</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>2814509</v>
+        <v>3139070</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>682837</v>
+        <v>727798</v>
       </c>
       <c r="H6" s="0" t="n">
-        <v>22.9</v>
+        <v>25.52</v>
       </c>
       <c r="I6" s="0" t="n">
-        <v>1171</v>
+        <v>1301</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="7">
@@ -1038,22 +1038,22 @@
         <v>14</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>97638</v>
+        <v>97749</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>90495</v>
+        <v>90667</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>3111614</v>
+        <v>3493569</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>611518</v>
+        <v>652032</v>
       </c>
       <c r="H7" s="0" t="n">
-        <v>31.87</v>
+        <v>35.74</v>
       </c>
       <c r="I7" s="0" t="n">
-        <v>1352</v>
+        <v>1514</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="8">
@@ -1067,22 +1067,22 @@
         <v>10</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>82391</v>
+        <v>83093</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>73212</v>
+        <v>73418</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>3082078</v>
+        <v>3508854</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>503554</v>
+        <v>545093</v>
       </c>
       <c r="H8" s="0" t="n">
-        <v>37.41</v>
+        <v>42.23</v>
       </c>
       <c r="I8" s="0" t="n">
-        <v>1381</v>
+        <v>1562</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="9">
@@ -1096,22 +1096,22 @@
         <v>14</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>79012</v>
+        <v>79187</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>71803</v>
+        <v>71977</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>2491496</v>
+        <v>2790907</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>530487</v>
+        <v>571590</v>
       </c>
       <c r="H9" s="0" t="n">
-        <v>31.53</v>
+        <v>35.24</v>
       </c>
       <c r="I9" s="0" t="n">
-        <v>1189</v>
+        <v>1333</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="10">
@@ -1125,22 +1125,22 @@
         <v>14</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>62865</v>
+        <v>62833</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>57596</v>
+        <v>57657</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>1890444</v>
+        <v>2123021</v>
       </c>
       <c r="G10" s="0" t="n">
-        <v>394526</v>
+        <v>422073</v>
       </c>
       <c r="H10" s="0" t="n">
-        <v>30.07</v>
+        <v>33.79</v>
       </c>
       <c r="I10" s="0" t="n">
-        <v>1073</v>
+        <v>1215</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="11">
@@ -1154,22 +1154,22 @@
         <v>12</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>60857</v>
+        <v>60711</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>56737</v>
+        <v>56784</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>1224832</v>
+        <v>1395163</v>
       </c>
       <c r="G11" s="0" t="n">
-        <v>403795</v>
+        <v>462811</v>
       </c>
       <c r="H11" s="0" t="n">
-        <v>20.13</v>
+        <v>22.98</v>
       </c>
       <c r="I11" s="0" t="n">
-        <v>745</v>
+        <v>858</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="12">
@@ -1183,22 +1183,22 @@
         <v>23</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>59094</v>
+        <v>59498</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>51632</v>
+        <v>51779</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>2162248</v>
+        <v>2454392</v>
       </c>
       <c r="G12" s="0" t="n">
-        <v>414545</v>
+        <v>447362</v>
       </c>
       <c r="H12" s="0" t="n">
-        <v>36.59</v>
+        <v>41.25</v>
       </c>
       <c r="I12" s="0" t="n">
-        <v>1193</v>
+        <v>1377</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="13">
@@ -1212,22 +1212,22 @@
         <v>12</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>51368</v>
+        <v>51300</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>50059</v>
+        <v>50122</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>1149939</v>
+        <v>1278268</v>
       </c>
       <c r="G13" s="0" t="n">
-        <v>211886</v>
+        <v>222693</v>
       </c>
       <c r="H13" s="0" t="n">
-        <v>22.39</v>
+        <v>24.92</v>
       </c>
       <c r="I13" s="0" t="n">
-        <v>810</v>
+        <v>934</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="14">
@@ -1241,22 +1241,22 @@
         <v>14</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>44030</v>
+        <v>44157</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>38777</v>
+        <v>38862</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>1932433</v>
+        <v>2195506</v>
       </c>
       <c r="G14" s="0" t="n">
-        <v>269865</v>
+        <v>286529</v>
       </c>
       <c r="H14" s="0" t="n">
-        <v>43.89</v>
+        <v>49.72</v>
       </c>
       <c r="I14" s="0" t="n">
-        <v>1206</v>
+        <v>1373</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="15">
@@ -1270,22 +1270,22 @@
         <v>27</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>42848</v>
+        <v>42844</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>40958</v>
+        <v>41038</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>918902</v>
+        <v>1036275</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>303500</v>
+        <v>330402</v>
       </c>
       <c r="H15" s="0" t="n">
-        <v>21.45</v>
+        <v>24.19</v>
       </c>
       <c r="I15" s="0" t="n">
-        <v>690</v>
+        <v>789</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="16">
@@ -1299,22 +1299,22 @@
         <v>29</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>37980</v>
+        <v>37979</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>37038</v>
+        <v>37099</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>515466</v>
+        <v>579537</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>155314</v>
+        <v>169664</v>
       </c>
       <c r="H16" s="0" t="n">
-        <v>13.57</v>
+        <v>15.26</v>
       </c>
       <c r="I16" s="0" t="n">
-        <v>675</v>
+        <v>753</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="17">
@@ -1328,22 +1328,22 @@
         <v>12</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>34935</v>
+        <v>34860</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>33763</v>
+        <v>33811</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>779015</v>
+        <v>869171</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>135553</v>
+        <v>141310</v>
       </c>
       <c r="H17" s="0" t="n">
-        <v>22.3</v>
+        <v>24.93</v>
       </c>
       <c r="I17" s="0" t="n">
-        <v>615</v>
+        <v>688</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="18">
@@ -1357,22 +1357,22 @@
         <v>14</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>31907</v>
+        <v>31925</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>28547</v>
+        <v>28646</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>1469540</v>
+        <v>1658720</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>170344</v>
+        <v>181395</v>
       </c>
       <c r="H18" s="0" t="n">
-        <v>46.06</v>
+        <v>51.96</v>
       </c>
       <c r="I18" s="0" t="n">
-        <v>1142</v>
+        <v>1291</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="19">
@@ -1386,22 +1386,22 @@
         <v>29</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>29652</v>
+        <v>29647</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>28479</v>
+        <v>28505</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>495302</v>
+        <v>555452</v>
       </c>
       <c r="G19" s="0" t="n">
-        <v>112386</v>
+        <v>119877</v>
       </c>
       <c r="H19" s="0" t="n">
-        <v>16.7</v>
+        <v>18.74</v>
       </c>
       <c r="I19" s="0" t="n">
-        <v>660</v>
+        <v>738</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="20">
@@ -1415,22 +1415,22 @@
         <v>14</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>27274</v>
+        <v>27220</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>24873</v>
+        <v>24914</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>1124804</v>
+        <v>1264572</v>
       </c>
       <c r="G20" s="0" t="n">
-        <v>147256</v>
+        <v>156263</v>
       </c>
       <c r="H20" s="0" t="n">
-        <v>41.24</v>
+        <v>46.46</v>
       </c>
       <c r="I20" s="0" t="n">
-        <v>1036</v>
+        <v>1159</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="21">
@@ -1444,22 +1444,22 @@
         <v>35</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>26571</v>
+        <v>26531</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>25053</v>
+        <v>25077</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>545262</v>
+        <v>625764</v>
       </c>
       <c r="G21" s="0" t="n">
-        <v>108956</v>
+        <v>120154</v>
       </c>
       <c r="H21" s="0" t="n">
-        <v>20.52</v>
+        <v>23.59</v>
       </c>
       <c r="I21" s="0" t="n">
-        <v>535</v>
+        <v>601</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="22">
@@ -1473,22 +1473,22 @@
         <v>14</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>24215</v>
+        <v>24253</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>22039</v>
+        <v>22084</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>967720</v>
+        <v>1090726</v>
       </c>
       <c r="G22" s="0" t="n">
-        <v>110083</v>
+        <v>115943</v>
       </c>
       <c r="H22" s="0" t="n">
-        <v>39.96</v>
+        <v>44.97</v>
       </c>
       <c r="I22" s="0" t="n">
-        <v>942</v>
+        <v>1067</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="23">
@@ -1502,22 +1502,22 @@
         <v>35</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>20191</v>
+        <v>20132</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>19655</v>
+        <v>19666</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>364813</v>
+        <v>411704</v>
       </c>
       <c r="G23" s="0" t="n">
-        <v>116631</v>
+        <v>125392</v>
       </c>
       <c r="H23" s="0" t="n">
-        <v>18.07</v>
+        <v>20.45</v>
       </c>
       <c r="I23" s="0" t="n">
-        <v>416</v>
+        <v>490</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="24">
@@ -1531,22 +1531,22 @@
         <v>14</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>17519</v>
+        <v>17603</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>16011</v>
+        <v>16091</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>594443</v>
+        <v>674673</v>
       </c>
       <c r="G24" s="0" t="n">
-        <v>69636</v>
+        <v>74181</v>
       </c>
       <c r="H24" s="0" t="n">
-        <v>33.93</v>
+        <v>38.33</v>
       </c>
       <c r="I24" s="0" t="n">
-        <v>783</v>
+        <v>877</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="25">
@@ -1560,22 +1560,22 @@
         <v>35</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>17273</v>
+        <v>17309</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>15711</v>
+        <v>15736</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>629843</v>
+        <v>709795</v>
       </c>
       <c r="G25" s="0" t="n">
-        <v>72824</v>
+        <v>78312</v>
       </c>
       <c r="H25" s="0" t="n">
-        <v>36.46</v>
+        <v>41.01</v>
       </c>
       <c r="I25" s="0" t="n">
-        <v>821</v>
+        <v>914</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="26">
@@ -1589,22 +1589,22 @@
         <v>14</v>
       </c>
       <c r="D26" s="0" t="n">
-        <v>16931</v>
+        <v>16912</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>15310</v>
+        <v>15346</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>465063</v>
+        <v>526983</v>
       </c>
       <c r="G26" s="0" t="n">
-        <v>59636</v>
+        <v>64107</v>
       </c>
       <c r="H26" s="0" t="n">
-        <v>27.47</v>
+        <v>31.16</v>
       </c>
       <c r="I26" s="0" t="n">
-        <v>610</v>
+        <v>685</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="27">
@@ -1618,22 +1618,22 @@
         <v>14</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>15959</v>
+        <v>15966</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>14301</v>
+        <v>14326</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>726482</v>
+        <v>820269</v>
       </c>
       <c r="G27" s="0" t="n">
-        <v>85254</v>
+        <v>90733</v>
       </c>
       <c r="H27" s="0" t="n">
-        <v>45.52</v>
+        <v>51.38</v>
       </c>
       <c r="I27" s="0" t="n">
-        <v>900</v>
+        <v>1014</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="28">
@@ -1647,22 +1647,22 @@
         <v>14</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>14970</v>
+        <v>15024</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>13774</v>
+        <v>13803</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>550543</v>
+        <v>623377</v>
       </c>
       <c r="G28" s="0" t="n">
-        <v>69879</v>
+        <v>74597</v>
       </c>
       <c r="H28" s="0" t="n">
-        <v>36.78</v>
+        <v>41.49</v>
       </c>
       <c r="I28" s="0" t="n">
-        <v>756</v>
+        <v>847</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="29">
@@ -1676,22 +1676,22 @@
         <v>27</v>
       </c>
       <c r="D29" s="0" t="n">
-        <v>14430</v>
+        <v>14427</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>13711</v>
+        <v>13733</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>313799</v>
+        <v>357381</v>
       </c>
       <c r="G29" s="0" t="n">
-        <v>59396</v>
+        <v>65260</v>
       </c>
       <c r="H29" s="0" t="n">
-        <v>21.75</v>
+        <v>24.77</v>
       </c>
       <c r="I29" s="0" t="n">
-        <v>536</v>
+        <v>598</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="30">
@@ -1705,22 +1705,22 @@
         <v>29</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>14421</v>
+        <v>14406</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>13899</v>
+        <v>13918</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>297967</v>
+        <v>333629</v>
       </c>
       <c r="G30" s="0" t="n">
-        <v>57688</v>
+        <v>60841</v>
       </c>
       <c r="H30" s="0" t="n">
-        <v>20.66</v>
+        <v>23.16</v>
       </c>
       <c r="I30" s="0" t="n">
-        <v>554</v>
+        <v>625</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="31">
@@ -1734,22 +1734,22 @@
         <v>12</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>14032</v>
+        <v>14009</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>12887</v>
+        <v>12897</v>
       </c>
       <c r="F31" s="0" t="n">
-        <v>482420</v>
+        <v>547093</v>
       </c>
       <c r="G31" s="0" t="n">
-        <v>51102</v>
+        <v>53681</v>
       </c>
       <c r="H31" s="0" t="n">
-        <v>34.38</v>
+        <v>39.05</v>
       </c>
       <c r="I31" s="0" t="n">
-        <v>687</v>
+        <v>800</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="32">
@@ -1763,22 +1763,22 @@
         <v>14</v>
       </c>
       <c r="D32" s="0" t="n">
-        <v>13391</v>
+        <v>13418</v>
       </c>
       <c r="E32" s="0" t="n">
-        <v>11943</v>
+        <v>11967</v>
       </c>
       <c r="F32" s="0" t="n">
-        <v>525845</v>
+        <v>602914</v>
       </c>
       <c r="G32" s="0" t="n">
-        <v>68796</v>
+        <v>74285</v>
       </c>
       <c r="H32" s="0" t="n">
-        <v>39.27</v>
+        <v>44.93</v>
       </c>
       <c r="I32" s="0" t="n">
-        <v>747</v>
+        <v>843</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="33">
@@ -1792,22 +1792,22 @@
         <v>12</v>
       </c>
       <c r="D33" s="0" t="n">
-        <v>13044</v>
+        <v>13099</v>
       </c>
       <c r="E33" s="0" t="n">
-        <v>11859</v>
+        <v>11879</v>
       </c>
       <c r="F33" s="0" t="n">
-        <v>439023</v>
+        <v>493371</v>
       </c>
       <c r="G33" s="0" t="n">
-        <v>41452</v>
+        <v>42979</v>
       </c>
       <c r="H33" s="0" t="n">
-        <v>33.66</v>
+        <v>37.66</v>
       </c>
       <c r="I33" s="0" t="n">
-        <v>697</v>
+        <v>806</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="34">
@@ -1821,22 +1821,22 @@
         <v>14</v>
       </c>
       <c r="D34" s="0" t="n">
-        <v>12969</v>
+        <v>12970</v>
       </c>
       <c r="E34" s="0" t="n">
-        <v>12136</v>
+        <v>12158</v>
       </c>
       <c r="F34" s="0" t="n">
-        <v>394469</v>
+        <v>446657</v>
       </c>
       <c r="G34" s="0" t="n">
-        <v>62111</v>
+        <v>66621</v>
       </c>
       <c r="H34" s="0" t="n">
-        <v>30.42</v>
+        <v>34.44</v>
       </c>
       <c r="I34" s="0" t="n">
-        <v>599</v>
+        <v>685</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="35">
@@ -1850,22 +1850,22 @@
         <v>23</v>
       </c>
       <c r="D35" s="0" t="n">
-        <v>10944</v>
+        <v>10992</v>
       </c>
       <c r="E35" s="0" t="n">
-        <v>9563</v>
+        <v>9590</v>
       </c>
       <c r="F35" s="0" t="n">
-        <v>381700</v>
+        <v>440352</v>
       </c>
       <c r="G35" s="0" t="n">
-        <v>46383</v>
+        <v>49951</v>
       </c>
       <c r="H35" s="0" t="n">
-        <v>34.88</v>
+        <v>40.06</v>
       </c>
       <c r="I35" s="0" t="n">
-        <v>633</v>
+        <v>716</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="36">
@@ -1879,22 +1879,22 @@
         <v>51</v>
       </c>
       <c r="D36" s="0" t="n">
-        <v>10429</v>
+        <v>10531</v>
       </c>
       <c r="E36" s="0" t="n">
-        <v>9409</v>
+        <v>9473</v>
       </c>
       <c r="F36" s="0" t="n">
-        <v>289463</v>
+        <v>329486</v>
       </c>
       <c r="G36" s="0" t="n">
-        <v>59934</v>
+        <v>65674</v>
       </c>
       <c r="H36" s="0" t="n">
-        <v>27.76</v>
+        <v>31.29</v>
       </c>
       <c r="I36" s="0" t="n">
-        <v>567</v>
+        <v>652</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="37">
@@ -1908,22 +1908,22 @@
         <v>14</v>
       </c>
       <c r="D37" s="0" t="n">
-        <v>9726</v>
+        <v>9758</v>
       </c>
       <c r="E37" s="0" t="n">
-        <v>8631</v>
+        <v>8653</v>
       </c>
       <c r="F37" s="0" t="n">
-        <v>352324</v>
+        <v>400981</v>
       </c>
       <c r="G37" s="0" t="n">
-        <v>33333</v>
+        <v>35398</v>
       </c>
       <c r="H37" s="0" t="n">
-        <v>36.22</v>
+        <v>41.09</v>
       </c>
       <c r="I37" s="0" t="n">
-        <v>628</v>
+        <v>711</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="38">
@@ -1937,22 +1937,22 @@
         <v>29</v>
       </c>
       <c r="D38" s="0" t="n">
-        <v>9300</v>
+        <v>9327</v>
       </c>
       <c r="E38" s="0" t="n">
-        <v>8754</v>
+        <v>8788</v>
       </c>
       <c r="F38" s="0" t="n">
-        <v>227829</v>
+        <v>259664</v>
       </c>
       <c r="G38" s="0" t="n">
-        <v>29360</v>
+        <v>31380</v>
       </c>
       <c r="H38" s="0" t="n">
-        <v>24.5</v>
+        <v>27.84</v>
       </c>
       <c r="I38" s="0" t="n">
-        <v>540</v>
+        <v>599</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="39">
@@ -1966,22 +1966,22 @@
         <v>27</v>
       </c>
       <c r="D39" s="0" t="n">
-        <v>9171</v>
+        <v>9162</v>
       </c>
       <c r="E39" s="0" t="n">
-        <v>8610</v>
+        <v>8619</v>
       </c>
       <c r="F39" s="0" t="n">
-        <v>254172</v>
+        <v>288181</v>
       </c>
       <c r="G39" s="0" t="n">
-        <v>48676</v>
+        <v>53104</v>
       </c>
       <c r="H39" s="0" t="n">
-        <v>27.71</v>
+        <v>31.45</v>
       </c>
       <c r="I39" s="0" t="n">
-        <v>510</v>
+        <v>568</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="40">
@@ -1995,22 +1995,22 @@
         <v>29</v>
       </c>
       <c r="D40" s="0" t="n">
-        <v>9079</v>
+        <v>9106</v>
       </c>
       <c r="E40" s="0" t="n">
-        <v>8911</v>
+        <v>8946</v>
       </c>
       <c r="F40" s="0" t="n">
-        <v>121024</v>
+        <v>134606</v>
       </c>
       <c r="G40" s="0" t="n">
-        <v>24377</v>
+        <v>25885</v>
       </c>
       <c r="H40" s="0" t="n">
-        <v>13.33</v>
+        <v>14.78</v>
       </c>
       <c r="I40" s="0" t="n">
-        <v>364</v>
+        <v>419</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="41">
@@ -2024,22 +2024,22 @@
         <v>12</v>
       </c>
       <c r="D41" s="0" t="n">
-        <v>8062</v>
+        <v>8067</v>
       </c>
       <c r="E41" s="0" t="n">
-        <v>7767</v>
+        <v>7780</v>
       </c>
       <c r="F41" s="0" t="n">
-        <v>132336</v>
+        <v>155185</v>
       </c>
       <c r="G41" s="0" t="n">
-        <v>29400</v>
+        <v>31865</v>
       </c>
       <c r="H41" s="0" t="n">
-        <v>16.41</v>
+        <v>19.24</v>
       </c>
       <c r="I41" s="0" t="n">
-        <v>415</v>
+        <v>504</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="42">
@@ -2053,22 +2053,22 @@
         <v>12</v>
       </c>
       <c r="D42" s="0" t="n">
-        <v>8026</v>
+        <v>8018</v>
       </c>
       <c r="E42" s="0" t="n">
-        <v>7681</v>
+        <v>7687</v>
       </c>
       <c r="F42" s="0" t="n">
-        <v>189592</v>
+        <v>218734</v>
       </c>
       <c r="G42" s="0" t="n">
-        <v>27071</v>
+        <v>29688</v>
       </c>
       <c r="H42" s="0" t="n">
-        <v>23.62</v>
+        <v>27.28</v>
       </c>
       <c r="I42" s="0" t="n">
-        <v>396</v>
+        <v>452</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="43">
@@ -2082,22 +2082,22 @@
         <v>29</v>
       </c>
       <c r="D43" s="0" t="n">
-        <v>7406</v>
+        <v>7412</v>
       </c>
       <c r="E43" s="0" t="n">
-        <v>7245</v>
+        <v>7254</v>
       </c>
       <c r="F43" s="0" t="n">
-        <v>91073</v>
+        <v>105387</v>
       </c>
       <c r="G43" s="0" t="n">
-        <v>21224</v>
+        <v>23343</v>
       </c>
       <c r="H43" s="0" t="n">
-        <v>12.3</v>
+        <v>14.22</v>
       </c>
       <c r="I43" s="0" t="n">
-        <v>323</v>
+        <v>358</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="44">
@@ -2111,22 +2111,22 @@
         <v>60</v>
       </c>
       <c r="D44" s="0" t="n">
-        <v>6803</v>
+        <v>6777</v>
       </c>
       <c r="E44" s="0" t="n">
-        <v>6544</v>
+        <v>6551</v>
       </c>
       <c r="F44" s="0" t="n">
-        <v>141617</v>
+        <v>161958</v>
       </c>
       <c r="G44" s="0" t="n">
-        <v>24495</v>
+        <v>27477</v>
       </c>
       <c r="H44" s="0" t="n">
-        <v>20.82</v>
+        <v>23.9</v>
       </c>
       <c r="I44" s="0" t="n">
-        <v>349</v>
+        <v>409</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="45">
@@ -2140,22 +2140,22 @@
         <v>27</v>
       </c>
       <c r="D45" s="0" t="n">
-        <v>6095</v>
+        <v>6101</v>
       </c>
       <c r="E45" s="0" t="n">
-        <v>5778</v>
+        <v>5797</v>
       </c>
       <c r="F45" s="0" t="n">
-        <v>158208</v>
+        <v>178336</v>
       </c>
       <c r="G45" s="0" t="n">
-        <v>28318</v>
+        <v>30845</v>
       </c>
       <c r="H45" s="0" t="n">
-        <v>25.96</v>
+        <v>29.23</v>
       </c>
       <c r="I45" s="0" t="n">
-        <v>451</v>
+        <v>515</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="46">
@@ -2169,22 +2169,22 @@
         <v>12</v>
       </c>
       <c r="D46" s="0" t="n">
-        <v>5293</v>
+        <v>5287</v>
       </c>
       <c r="E46" s="0" t="n">
-        <v>5072</v>
+        <v>5073</v>
       </c>
       <c r="F46" s="0" t="n">
-        <v>109236</v>
+        <v>126089</v>
       </c>
       <c r="G46" s="0" t="n">
-        <v>25849</v>
+        <v>28827</v>
       </c>
       <c r="H46" s="0" t="n">
-        <v>20.64</v>
+        <v>23.85</v>
       </c>
       <c r="I46" s="0" t="n">
-        <v>353</v>
+        <v>428</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="47">
@@ -2198,22 +2198,22 @@
         <v>29</v>
       </c>
       <c r="D47" s="0" t="n">
-        <v>4969</v>
+        <v>4970</v>
       </c>
       <c r="E47" s="0" t="n">
-        <v>4776</v>
+        <v>4788</v>
       </c>
       <c r="F47" s="0" t="n">
-        <v>73987</v>
+        <v>82552</v>
       </c>
       <c r="G47" s="0" t="n">
-        <v>13000</v>
+        <v>14029</v>
       </c>
       <c r="H47" s="0" t="n">
-        <v>14.89</v>
+        <v>16.61</v>
       </c>
       <c r="I47" s="0" t="n">
-        <v>337</v>
+        <v>380</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="48">
@@ -2227,22 +2227,22 @@
         <v>29</v>
       </c>
       <c r="D48" s="0" t="n">
-        <v>4807</v>
+        <v>4813</v>
       </c>
       <c r="E48" s="0" t="n">
-        <v>4646</v>
+        <v>4652</v>
       </c>
       <c r="F48" s="0" t="n">
-        <v>89946</v>
+        <v>103367</v>
       </c>
       <c r="G48" s="0" t="n">
-        <v>13520</v>
+        <v>14447</v>
       </c>
       <c r="H48" s="0" t="n">
-        <v>18.71</v>
+        <v>21.48</v>
       </c>
       <c r="I48" s="0" t="n">
-        <v>331</v>
+        <v>355</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="49">
@@ -2256,22 +2256,22 @@
         <v>29</v>
       </c>
       <c r="D49" s="0" t="n">
-        <v>4571</v>
+        <v>4578</v>
       </c>
       <c r="E49" s="0" t="n">
-        <v>4367</v>
+        <v>4375</v>
       </c>
       <c r="F49" s="0" t="n">
-        <v>106011</v>
+        <v>118981</v>
       </c>
       <c r="G49" s="0" t="n">
-        <v>15854</v>
+        <v>16849</v>
       </c>
       <c r="H49" s="0" t="n">
-        <v>23.19</v>
+        <v>25.99</v>
       </c>
       <c r="I49" s="0" t="n">
-        <v>361</v>
+        <v>409</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="50">
@@ -2285,22 +2285,22 @@
         <v>29</v>
       </c>
       <c r="D50" s="0" t="n">
-        <v>4083</v>
+        <v>4075</v>
       </c>
       <c r="E50" s="0" t="n">
-        <v>3947</v>
+        <v>3949</v>
       </c>
       <c r="F50" s="0" t="n">
-        <v>72989</v>
+        <v>81425</v>
       </c>
       <c r="G50" s="0" t="n">
-        <v>14478</v>
+        <v>15447</v>
       </c>
       <c r="H50" s="0" t="n">
-        <v>17.88</v>
+        <v>19.98</v>
       </c>
       <c r="I50" s="0" t="n">
-        <v>307</v>
+        <v>350</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="51">
@@ -2314,22 +2314,22 @@
         <v>51</v>
       </c>
       <c r="D51" s="0" t="n">
-        <v>4028</v>
+        <v>4042</v>
       </c>
       <c r="E51" s="0" t="n">
-        <v>3867</v>
+        <v>3875</v>
       </c>
       <c r="F51" s="0" t="n">
-        <v>59820</v>
+        <v>68839</v>
       </c>
       <c r="G51" s="0" t="n">
-        <v>12456</v>
+        <v>14440</v>
       </c>
       <c r="H51" s="0" t="n">
-        <v>14.85</v>
+        <v>17.03</v>
       </c>
       <c r="I51" s="0" t="n">
-        <v>260</v>
+        <v>303</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="52">
@@ -2343,22 +2343,22 @@
         <v>51</v>
       </c>
       <c r="D52" s="0" t="n">
-        <v>3922</v>
+        <v>3915</v>
       </c>
       <c r="E52" s="0" t="n">
-        <v>3617</v>
+        <v>3622</v>
       </c>
       <c r="F52" s="0" t="n">
-        <v>64585</v>
+        <v>73233</v>
       </c>
       <c r="G52" s="0" t="n">
-        <v>11552</v>
+        <v>12546</v>
       </c>
       <c r="H52" s="0" t="n">
-        <v>16.47</v>
+        <v>18.71</v>
       </c>
       <c r="I52" s="0" t="n">
-        <v>235</v>
+        <v>271</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="53">
@@ -2372,22 +2372,22 @@
         <v>27</v>
       </c>
       <c r="D53" s="0" t="n">
-        <v>3619</v>
+        <v>3636</v>
       </c>
       <c r="E53" s="0" t="n">
-        <v>3470</v>
+        <v>3484</v>
       </c>
       <c r="F53" s="0" t="n">
-        <v>83528</v>
+        <v>93478</v>
       </c>
       <c r="G53" s="0" t="n">
-        <v>12257</v>
+        <v>13617</v>
       </c>
       <c r="H53" s="0" t="n">
-        <v>23.08</v>
+        <v>25.71</v>
       </c>
       <c r="I53" s="0" t="n">
-        <v>356</v>
+        <v>405</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="54">
@@ -2401,22 +2401,22 @@
         <v>29</v>
       </c>
       <c r="D54" s="0" t="n">
-        <v>3556</v>
+        <v>3562</v>
       </c>
       <c r="E54" s="0" t="n">
-        <v>3432</v>
+        <v>3442</v>
       </c>
       <c r="F54" s="0" t="n">
-        <v>64765</v>
+        <v>72061</v>
       </c>
       <c r="G54" s="0" t="n">
-        <v>8240</v>
+        <v>8871</v>
       </c>
       <c r="H54" s="0" t="n">
-        <v>18.21</v>
+        <v>20.23</v>
       </c>
       <c r="I54" s="0" t="n">
-        <v>305</v>
+        <v>347</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="55">
@@ -2430,22 +2430,22 @@
         <v>35</v>
       </c>
       <c r="D55" s="0" t="n">
-        <v>3451</v>
+        <v>3450</v>
       </c>
       <c r="E55" s="0" t="n">
-        <v>3238</v>
+        <v>3252</v>
       </c>
       <c r="F55" s="0" t="n">
-        <v>60187</v>
+        <v>68675</v>
       </c>
       <c r="G55" s="0" t="n">
-        <v>8644</v>
+        <v>9740</v>
       </c>
       <c r="H55" s="0" t="n">
-        <v>17.44</v>
+        <v>19.91</v>
       </c>
       <c r="I55" s="0" t="n">
-        <v>478</v>
+        <v>568</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="56">
@@ -2459,22 +2459,22 @@
         <v>29</v>
       </c>
       <c r="D56" s="0" t="n">
-        <v>3053</v>
+        <v>3055</v>
       </c>
       <c r="E56" s="0" t="n">
-        <v>2977</v>
+        <v>2982</v>
       </c>
       <c r="F56" s="0" t="n">
-        <v>41618</v>
+        <v>46263</v>
       </c>
       <c r="G56" s="0" t="n">
-        <v>8862</v>
+        <v>9141</v>
       </c>
       <c r="H56" s="0" t="n">
-        <v>13.63</v>
+        <v>15.14</v>
       </c>
       <c r="I56" s="0" t="n">
-        <v>265</v>
+        <v>298</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="57">
@@ -2488,22 +2488,22 @@
         <v>51</v>
       </c>
       <c r="D57" s="0" t="n">
-        <v>2528</v>
+        <v>2527</v>
       </c>
       <c r="E57" s="0" t="n">
-        <v>2497</v>
+        <v>2499</v>
       </c>
       <c r="F57" s="0" t="n">
-        <v>42149</v>
+        <v>48122</v>
       </c>
       <c r="G57" s="0" t="n">
-        <v>7642</v>
+        <v>8498</v>
       </c>
       <c r="H57" s="0" t="n">
-        <v>16.67</v>
+        <v>19.04</v>
       </c>
       <c r="I57" s="0" t="n">
-        <v>213</v>
+        <v>239</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="58">
@@ -2517,22 +2517,22 @@
         <v>27</v>
       </c>
       <c r="D58" s="0" t="n">
-        <v>2339</v>
+        <v>2331</v>
       </c>
       <c r="E58" s="0" t="n">
-        <v>2232</v>
+        <v>2231</v>
       </c>
       <c r="F58" s="0" t="n">
-        <v>35255</v>
+        <v>38926</v>
       </c>
       <c r="G58" s="0" t="n">
-        <v>3376</v>
+        <v>3535</v>
       </c>
       <c r="H58" s="0" t="n">
-        <v>15.07</v>
+        <v>16.7</v>
       </c>
       <c r="I58" s="0" t="n">
-        <v>254</v>
+        <v>279</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="59">
@@ -2546,22 +2546,22 @@
         <v>51</v>
       </c>
       <c r="D59" s="0" t="n">
-        <v>1927</v>
+        <v>1925</v>
       </c>
       <c r="E59" s="0" t="n">
-        <v>1826</v>
+        <v>1832</v>
       </c>
       <c r="F59" s="0" t="n">
-        <v>40003</v>
+        <v>46244</v>
       </c>
       <c r="G59" s="0" t="n">
-        <v>6745</v>
+        <v>8040</v>
       </c>
       <c r="H59" s="0" t="n">
-        <v>20.76</v>
+        <v>24.02</v>
       </c>
       <c r="I59" s="0" t="n">
-        <v>232</v>
+        <v>261</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="60">
@@ -2575,22 +2575,22 @@
         <v>35</v>
       </c>
       <c r="D60" s="0" t="n">
-        <v>1905</v>
+        <v>1911</v>
       </c>
       <c r="E60" s="0" t="n">
-        <v>1838</v>
+        <v>1840</v>
       </c>
       <c r="F60" s="0" t="n">
-        <v>34965</v>
+        <v>40584</v>
       </c>
       <c r="G60" s="0" t="n">
-        <v>3895</v>
+        <v>4365</v>
       </c>
       <c r="H60" s="0" t="n">
-        <v>18.35</v>
+        <v>21.24</v>
       </c>
       <c r="I60" s="0" t="n">
-        <v>219</v>
+        <v>251</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="61">
@@ -2604,22 +2604,22 @@
         <v>27</v>
       </c>
       <c r="D61" s="0" t="n">
-        <v>1893</v>
+        <v>1890</v>
       </c>
       <c r="E61" s="0" t="n">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="F61" s="0" t="n">
-        <v>25494</v>
+        <v>28824</v>
       </c>
       <c r="G61" s="0" t="n">
-        <v>3778</v>
+        <v>4057</v>
       </c>
       <c r="H61" s="0" t="n">
-        <v>13.47</v>
+        <v>15.25</v>
       </c>
       <c r="I61" s="0" t="n">
-        <v>200</v>
+        <v>223</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="62">
@@ -2633,22 +2633,22 @@
         <v>12</v>
       </c>
       <c r="D62" s="0" t="n">
-        <v>1772</v>
+        <v>1768</v>
       </c>
       <c r="E62" s="0" t="n">
-        <v>1667</v>
+        <v>1664</v>
       </c>
       <c r="F62" s="0" t="n">
-        <v>33423</v>
+        <v>38507</v>
       </c>
       <c r="G62" s="0" t="n">
-        <v>5575</v>
+        <v>6315</v>
       </c>
       <c r="H62" s="0" t="n">
-        <v>18.86</v>
+        <v>21.78</v>
       </c>
       <c r="I62" s="0" t="n">
-        <v>252</v>
+        <v>304</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="63">
@@ -2662,22 +2662,22 @@
         <v>35</v>
       </c>
       <c r="D63" s="0" t="n">
-        <v>1728</v>
+        <v>1737</v>
       </c>
       <c r="E63" s="0" t="n">
-        <v>1588</v>
+        <v>1598</v>
       </c>
       <c r="F63" s="0" t="n">
-        <v>36687</v>
+        <v>45347</v>
       </c>
       <c r="G63" s="0" t="n">
-        <v>2907</v>
+        <v>3188</v>
       </c>
       <c r="H63" s="0" t="n">
-        <v>21.23</v>
+        <v>26.11</v>
       </c>
       <c r="I63" s="0" t="n">
-        <v>268</v>
+        <v>329</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="64">
@@ -2691,22 +2691,22 @@
         <v>29</v>
       </c>
       <c r="D64" s="0" t="n">
-        <v>1727</v>
+        <v>1734</v>
       </c>
       <c r="E64" s="0" t="n">
-        <v>1634</v>
+        <v>1639</v>
       </c>
       <c r="F64" s="0" t="n">
-        <v>53863</v>
+        <v>60520</v>
       </c>
       <c r="G64" s="0" t="n">
-        <v>7520</v>
+        <v>8017</v>
       </c>
       <c r="H64" s="0" t="n">
-        <v>31.19</v>
+        <v>34.9</v>
       </c>
       <c r="I64" s="0" t="n">
-        <v>346</v>
+        <v>383</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="65">
@@ -2720,22 +2720,22 @@
         <v>12</v>
       </c>
       <c r="D65" s="0" t="n">
-        <v>1589</v>
+        <v>1616</v>
       </c>
       <c r="E65" s="0" t="n">
-        <v>1475</v>
+        <v>1499</v>
       </c>
       <c r="F65" s="0" t="n">
-        <v>40264</v>
+        <v>46222</v>
       </c>
       <c r="G65" s="0" t="n">
-        <v>6013</v>
+        <v>7127</v>
       </c>
       <c r="H65" s="0" t="n">
-        <v>25.34</v>
+        <v>28.6</v>
       </c>
       <c r="I65" s="0" t="n">
-        <v>284</v>
+        <v>318</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="66">
@@ -2749,22 +2749,22 @@
         <v>12</v>
       </c>
       <c r="D66" s="0" t="n">
-        <v>1514</v>
+        <v>1524</v>
       </c>
       <c r="E66" s="0" t="n">
-        <v>1445</v>
+        <v>1456</v>
       </c>
       <c r="F66" s="0" t="n">
-        <v>39705</v>
+        <v>44947</v>
       </c>
       <c r="G66" s="0" t="n">
-        <v>5823</v>
+        <v>6467</v>
       </c>
       <c r="H66" s="0" t="n">
-        <v>26.23</v>
+        <v>29.49</v>
       </c>
       <c r="I66" s="0" t="n">
-        <v>269</v>
+        <v>316</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="67">
@@ -2778,22 +2778,22 @@
         <v>29</v>
       </c>
       <c r="D67" s="0" t="n">
-        <v>1473</v>
+        <v>1471</v>
       </c>
       <c r="E67" s="0" t="n">
-        <v>1450</v>
+        <v>1451</v>
       </c>
       <c r="F67" s="0" t="n">
-        <v>26553</v>
+        <v>29456</v>
       </c>
       <c r="G67" s="0" t="n">
-        <v>4403</v>
+        <v>4645</v>
       </c>
       <c r="H67" s="0" t="n">
-        <v>18.03</v>
+        <v>20.02</v>
       </c>
       <c r="I67" s="0" t="n">
-        <v>213</v>
+        <v>232</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="68">
@@ -2807,22 +2807,22 @@
         <v>51</v>
       </c>
       <c r="D68" s="0" t="n">
-        <v>1352</v>
+        <v>1356</v>
       </c>
       <c r="E68" s="0" t="n">
-        <v>1218</v>
+        <v>1221</v>
       </c>
       <c r="F68" s="0" t="n">
-        <v>49669</v>
+        <v>56395</v>
       </c>
       <c r="G68" s="0" t="n">
-        <v>7128</v>
+        <v>7728</v>
       </c>
       <c r="H68" s="0" t="n">
-        <v>36.74</v>
+        <v>41.59</v>
       </c>
       <c r="I68" s="0" t="n">
-        <v>310</v>
+        <v>346</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="69">
@@ -2836,22 +2836,22 @@
         <v>35</v>
       </c>
       <c r="D69" s="0" t="n">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="E69" s="0" t="n">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="F69" s="0" t="n">
-        <v>29944</v>
+        <v>33541</v>
       </c>
       <c r="G69" s="0" t="n">
-        <v>2669</v>
+        <v>2872</v>
       </c>
       <c r="H69" s="0" t="n">
-        <v>23.39</v>
+        <v>26.22</v>
       </c>
       <c r="I69" s="0" t="n">
-        <v>264</v>
+        <v>295</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="70">
@@ -2862,25 +2862,25 @@
         <v>86</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="D70" s="0" t="n">
-        <v>1147</v>
+        <v>1144</v>
       </c>
       <c r="E70" s="0" t="n">
-        <v>1091</v>
+        <v>978</v>
       </c>
       <c r="F70" s="0" t="n">
-        <v>21008</v>
+        <v>41611</v>
       </c>
       <c r="G70" s="0" t="n">
-        <v>1955</v>
+        <v>3437</v>
       </c>
       <c r="H70" s="0" t="n">
-        <v>18.32</v>
+        <v>36.37</v>
       </c>
       <c r="I70" s="0" t="n">
-        <v>195</v>
+        <v>325</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="71">
@@ -2891,25 +2891,25 @@
         <v>87</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="D71" s="0" t="n">
-        <v>1105</v>
+        <v>1144</v>
       </c>
       <c r="E71" s="0" t="n">
-        <v>976</v>
+        <v>1092</v>
       </c>
       <c r="F71" s="0" t="n">
-        <v>33849</v>
+        <v>24042</v>
       </c>
       <c r="G71" s="0" t="n">
-        <v>3097</v>
+        <v>2060</v>
       </c>
       <c r="H71" s="0" t="n">
-        <v>30.63</v>
+        <v>21.02</v>
       </c>
       <c r="I71" s="0" t="n">
-        <v>296</v>
+        <v>220</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="72">
@@ -2923,22 +2923,22 @@
         <v>27</v>
       </c>
       <c r="D72" s="0" t="n">
-        <v>1034</v>
+        <v>1037</v>
       </c>
       <c r="E72" s="0" t="n">
-        <v>977</v>
+        <v>979</v>
       </c>
       <c r="F72" s="0" t="n">
-        <v>30856</v>
+        <v>34588</v>
       </c>
       <c r="G72" s="0" t="n">
-        <v>1660</v>
+        <v>1735</v>
       </c>
       <c r="H72" s="0" t="n">
-        <v>29.84</v>
+        <v>33.35</v>
       </c>
       <c r="I72" s="0" t="n">
-        <v>253</v>
+        <v>281</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="73">
@@ -2952,22 +2952,22 @@
         <v>14</v>
       </c>
       <c r="D73" s="0" t="n">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E73" s="0" t="n">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F73" s="0" t="n">
-        <v>28734</v>
+        <v>32057</v>
       </c>
       <c r="G73" s="0" t="n">
-        <v>3346</v>
+        <v>3610</v>
       </c>
       <c r="H73" s="0" t="n">
-        <v>28.23</v>
+        <v>31.55</v>
       </c>
       <c r="I73" s="0" t="n">
-        <v>254</v>
+        <v>303</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="74">
@@ -2981,22 +2981,22 @@
         <v>14</v>
       </c>
       <c r="D74" s="0" t="n">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="E74" s="0" t="n">
         <v>813</v>
       </c>
       <c r="F74" s="0" t="n">
-        <v>41248</v>
+        <v>46031</v>
       </c>
       <c r="G74" s="0" t="n">
-        <v>3614</v>
+        <v>3919</v>
       </c>
       <c r="H74" s="0" t="n">
-        <v>43.74</v>
+        <v>48.76</v>
       </c>
       <c r="I74" s="0" t="n">
-        <v>370</v>
+        <v>393</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="75">
@@ -3010,22 +3010,22 @@
         <v>29</v>
       </c>
       <c r="D75" s="0" t="n">
-        <v>933</v>
+        <v>941</v>
       </c>
       <c r="E75" s="0" t="n">
-        <v>884</v>
+        <v>889</v>
       </c>
       <c r="F75" s="0" t="n">
-        <v>14420</v>
+        <v>16140</v>
       </c>
       <c r="G75" s="0" t="n">
-        <v>1838</v>
+        <v>1958</v>
       </c>
       <c r="H75" s="0" t="n">
-        <v>15.46</v>
+        <v>17.15</v>
       </c>
       <c r="I75" s="0" t="n">
-        <v>202</v>
+        <v>225</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="76">
@@ -3039,22 +3039,22 @@
         <v>27</v>
       </c>
       <c r="D76" s="0" t="n">
-        <v>865</v>
+        <v>868</v>
       </c>
       <c r="E76" s="0" t="n">
-        <v>809</v>
+        <v>812</v>
       </c>
       <c r="F76" s="0" t="n">
-        <v>29936</v>
+        <v>33703</v>
       </c>
       <c r="G76" s="0" t="n">
-        <v>3157</v>
+        <v>3533</v>
       </c>
       <c r="H76" s="0" t="n">
-        <v>34.61</v>
+        <v>38.83</v>
       </c>
       <c r="I76" s="0" t="n">
-        <v>288</v>
+        <v>315</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="77">
@@ -3068,22 +3068,22 @@
         <v>12</v>
       </c>
       <c r="D77" s="0" t="n">
-        <v>840</v>
+        <v>848</v>
       </c>
       <c r="E77" s="0" t="n">
-        <v>768</v>
+        <v>771</v>
       </c>
       <c r="F77" s="0" t="n">
-        <v>24337</v>
+        <v>28120</v>
       </c>
       <c r="G77" s="0" t="n">
-        <v>2432</v>
+        <v>2847</v>
       </c>
       <c r="H77" s="0" t="n">
-        <v>28.97</v>
+        <v>33.16</v>
       </c>
       <c r="I77" s="0" t="n">
-        <v>225</v>
+        <v>251</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="78">
@@ -3097,22 +3097,22 @@
         <v>27</v>
       </c>
       <c r="D78" s="0" t="n">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="E78" s="0" t="n">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="F78" s="0" t="n">
-        <v>29893</v>
+        <v>33782</v>
       </c>
       <c r="G78" s="0" t="n">
-        <v>2935</v>
+        <v>3194</v>
       </c>
       <c r="H78" s="0" t="n">
-        <v>36.86</v>
+        <v>41.6</v>
       </c>
       <c r="I78" s="0" t="n">
-        <v>222</v>
+        <v>243</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="79">
@@ -3126,22 +3126,22 @@
         <v>35</v>
       </c>
       <c r="D79" s="0" t="n">
-        <v>734</v>
+        <v>737</v>
       </c>
       <c r="E79" s="0" t="n">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="F79" s="0" t="n">
-        <v>14885</v>
+        <v>17557</v>
       </c>
       <c r="G79" s="0" t="n">
-        <v>1176</v>
+        <v>1251</v>
       </c>
       <c r="H79" s="0" t="n">
-        <v>20.28</v>
+        <v>23.82</v>
       </c>
       <c r="I79" s="0" t="n">
-        <v>176</v>
+        <v>217</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="80">
@@ -3155,22 +3155,22 @@
         <v>29</v>
       </c>
       <c r="D80" s="0" t="n">
-        <v>686</v>
+        <v>703</v>
       </c>
       <c r="E80" s="0" t="n">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="F80" s="0" t="n">
-        <v>19245</v>
+        <v>21576</v>
       </c>
       <c r="G80" s="0" t="n">
-        <v>3012</v>
+        <v>3311</v>
       </c>
       <c r="H80" s="0" t="n">
-        <v>28.05</v>
+        <v>30.69</v>
       </c>
       <c r="I80" s="0" t="n">
-        <v>219</v>
+        <v>248</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="81">
@@ -3184,22 +3184,22 @@
         <v>14</v>
       </c>
       <c r="D81" s="0" t="n">
-        <v>665</v>
+        <v>678</v>
       </c>
       <c r="E81" s="0" t="n">
-        <v>616</v>
+        <v>621</v>
       </c>
       <c r="F81" s="0" t="n">
-        <v>19977</v>
+        <v>22444</v>
       </c>
       <c r="G81" s="0" t="n">
-        <v>1452</v>
+        <v>1516</v>
       </c>
       <c r="H81" s="0" t="n">
-        <v>30.04</v>
+        <v>33.1</v>
       </c>
       <c r="I81" s="0" t="n">
-        <v>243</v>
+        <v>274</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="82">
@@ -3213,22 +3213,22 @@
         <v>51</v>
       </c>
       <c r="D82" s="0" t="n">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="E82" s="0" t="n">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="F82" s="0" t="n">
-        <v>14985</v>
+        <v>25226</v>
       </c>
       <c r="G82" s="0" t="n">
-        <v>3026</v>
+        <v>3419</v>
       </c>
       <c r="H82" s="0" t="n">
-        <v>22.57</v>
+        <v>38.05</v>
       </c>
       <c r="I82" s="0" t="n">
-        <v>167</v>
+        <v>228</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="83">
@@ -3242,22 +3242,22 @@
         <v>51</v>
       </c>
       <c r="D83" s="0" t="n">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="E83" s="0" t="n">
-        <v>616</v>
+        <v>626</v>
       </c>
       <c r="F83" s="0" t="n">
-        <v>22330</v>
+        <v>17360</v>
       </c>
       <c r="G83" s="0" t="n">
-        <v>3107</v>
+        <v>3490</v>
       </c>
       <c r="H83" s="0" t="n">
-        <v>33.88</v>
+        <v>26.26</v>
       </c>
       <c r="I83" s="0" t="n">
-        <v>205</v>
+        <v>186</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="84">
@@ -3271,22 +3271,22 @@
         <v>51</v>
       </c>
       <c r="D84" s="0" t="n">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="E84" s="0" t="n">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="F84" s="0" t="n">
-        <v>16110</v>
+        <v>18827</v>
       </c>
       <c r="G84" s="0" t="n">
-        <v>4345</v>
+        <v>5240</v>
       </c>
       <c r="H84" s="0" t="n">
-        <v>24.98</v>
+        <v>29.33</v>
       </c>
       <c r="I84" s="0" t="n">
-        <v>193</v>
+        <v>226</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="85">
@@ -3297,25 +3297,25 @@
         <v>101</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="D85" s="0" t="n">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="E85" s="0" t="n">
-        <v>615</v>
+        <v>558</v>
       </c>
       <c r="F85" s="0" t="n">
-        <v>22313</v>
+        <v>30731</v>
       </c>
       <c r="G85" s="0" t="n">
-        <v>3729</v>
+        <v>3818</v>
       </c>
       <c r="H85" s="0" t="n">
-        <v>35.03</v>
+        <v>47.94</v>
       </c>
       <c r="I85" s="0" t="n">
-        <v>214</v>
+        <v>236</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="86">
@@ -3326,25 +3326,25 @@
         <v>102</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="D86" s="0" t="n">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="E86" s="0" t="n">
-        <v>552</v>
+        <v>618</v>
       </c>
       <c r="F86" s="0" t="n">
-        <v>27007</v>
+        <v>24495</v>
       </c>
       <c r="G86" s="0" t="n">
-        <v>3493</v>
+        <v>4008</v>
       </c>
       <c r="H86" s="0" t="n">
-        <v>42.53</v>
+        <v>38.39</v>
       </c>
       <c r="I86" s="0" t="n">
-        <v>209</v>
+        <v>235</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="87">
@@ -3358,22 +3358,22 @@
         <v>29</v>
       </c>
       <c r="D87" s="0" t="n">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="E87" s="0" t="n">
         <v>600</v>
       </c>
       <c r="F87" s="0" t="n">
-        <v>7764</v>
+        <v>8641</v>
       </c>
       <c r="G87" s="0" t="n">
-        <v>1495</v>
+        <v>1663</v>
       </c>
       <c r="H87" s="0" t="n">
-        <v>12.75</v>
+        <v>14.24</v>
       </c>
       <c r="I87" s="0" t="n">
-        <v>138</v>
+        <v>153</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="88">
@@ -3387,22 +3387,22 @@
         <v>12</v>
       </c>
       <c r="D88" s="0" t="n">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E88" s="0" t="n">
         <v>538</v>
       </c>
       <c r="F88" s="0" t="n">
-        <v>10844</v>
+        <v>12092</v>
       </c>
       <c r="G88" s="0" t="n">
-        <v>1435</v>
+        <v>1564</v>
       </c>
       <c r="H88" s="0" t="n">
-        <v>17.95</v>
+        <v>20.05</v>
       </c>
       <c r="I88" s="0" t="n">
-        <v>175</v>
+        <v>202</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="89">
@@ -3416,22 +3416,22 @@
         <v>51</v>
       </c>
       <c r="D89" s="0" t="n">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="E89" s="0" t="n">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="F89" s="0" t="n">
-        <v>19600</v>
+        <v>22475</v>
       </c>
       <c r="G89" s="0" t="n">
-        <v>2301</v>
+        <v>2644</v>
       </c>
       <c r="H89" s="0" t="n">
-        <v>33.28</v>
+        <v>38.03</v>
       </c>
       <c r="I89" s="0" t="n">
-        <v>191</v>
+        <v>222</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="90">
@@ -3445,22 +3445,22 @@
         <v>35</v>
       </c>
       <c r="D90" s="0" t="n">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="E90" s="0" t="n">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="F90" s="0" t="n">
-        <v>10009</v>
+        <v>11307</v>
       </c>
       <c r="G90" s="0" t="n">
-        <v>947</v>
+        <v>988</v>
       </c>
       <c r="H90" s="0" t="n">
-        <v>17.72</v>
+        <v>19.98</v>
       </c>
       <c r="I90" s="0" t="n">
-        <v>238</v>
+        <v>295</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="91">
@@ -3474,22 +3474,22 @@
         <v>29</v>
       </c>
       <c r="D91" s="0" t="n">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="E91" s="0" t="n">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="F91" s="0" t="n">
-        <v>6320</v>
+        <v>7136</v>
       </c>
       <c r="G91" s="0" t="n">
-        <v>761</v>
+        <v>815</v>
       </c>
       <c r="H91" s="0" t="n">
-        <v>11.79</v>
+        <v>13.26</v>
       </c>
       <c r="I91" s="0" t="n">
-        <v>152</v>
+        <v>170</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="92">
@@ -3503,22 +3503,22 @@
         <v>27</v>
       </c>
       <c r="D92" s="0" t="n">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E92" s="0" t="n">
         <v>484</v>
       </c>
       <c r="F92" s="0" t="n">
-        <v>19826</v>
+        <v>22585</v>
       </c>
       <c r="G92" s="0" t="n">
-        <v>1708</v>
+        <v>1864</v>
       </c>
       <c r="H92" s="0" t="n">
-        <v>37.13</v>
+        <v>42.37</v>
       </c>
       <c r="I92" s="0" t="n">
-        <v>214</v>
+        <v>235</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="93">
@@ -3532,22 +3532,22 @@
         <v>29</v>
       </c>
       <c r="D93" s="0" t="n">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="E93" s="0" t="n">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="F93" s="0" t="n">
-        <v>5429</v>
+        <v>6095</v>
       </c>
       <c r="G93" s="0" t="n">
-        <v>621</v>
+        <v>666</v>
       </c>
       <c r="H93" s="0" t="n">
-        <v>10.3</v>
+        <v>11.68</v>
       </c>
       <c r="I93" s="0" t="n">
-        <v>128</v>
+        <v>144</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="94">
@@ -3561,22 +3561,22 @@
         <v>35</v>
       </c>
       <c r="D94" s="0" t="n">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="E94" s="0" t="n">
         <v>439</v>
       </c>
       <c r="F94" s="0" t="n">
-        <v>5659</v>
+        <v>6572</v>
       </c>
       <c r="G94" s="0" t="n">
-        <v>723</v>
+        <v>871</v>
       </c>
       <c r="H94" s="0" t="n">
-        <v>12.07</v>
+        <v>14.1</v>
       </c>
       <c r="I94" s="0" t="n">
-        <v>155</v>
+        <v>199</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="95">
@@ -3590,22 +3590,22 @@
         <v>12</v>
       </c>
       <c r="D95" s="0" t="n">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="E95" s="0" t="n">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="F95" s="0" t="n">
-        <v>11763</v>
+        <v>13256</v>
       </c>
       <c r="G95" s="0" t="n">
-        <v>951</v>
+        <v>1216</v>
       </c>
       <c r="H95" s="0" t="n">
-        <v>26.26</v>
+        <v>29.52</v>
       </c>
       <c r="I95" s="0" t="n">
-        <v>106</v>
+        <v>126</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="96">
@@ -3619,22 +3619,22 @@
         <v>27</v>
       </c>
       <c r="D96" s="0" t="n">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E96" s="0" t="n">
         <v>390</v>
       </c>
       <c r="F96" s="0" t="n">
-        <v>21317</v>
+        <v>24134</v>
       </c>
       <c r="G96" s="0" t="n">
-        <v>1993</v>
+        <v>2281</v>
       </c>
       <c r="H96" s="0" t="n">
-        <v>51</v>
+        <v>57.88</v>
       </c>
       <c r="I96" s="0" t="n">
-        <v>197</v>
+        <v>223</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="97">
@@ -3648,22 +3648,22 @@
         <v>12</v>
       </c>
       <c r="D97" s="0" t="n">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E97" s="0" t="n">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="F97" s="0" t="n">
-        <v>7897</v>
+        <v>9091</v>
       </c>
       <c r="G97" s="0" t="n">
-        <v>657</v>
+        <v>697</v>
       </c>
       <c r="H97" s="0" t="n">
-        <v>19.31</v>
+        <v>22.34</v>
       </c>
       <c r="I97" s="0" t="n">
-        <v>178</v>
+        <v>224</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="98">
@@ -3677,22 +3677,22 @@
         <v>51</v>
       </c>
       <c r="D98" s="0" t="n">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="E98" s="0" t="n">
         <v>369</v>
       </c>
       <c r="F98" s="0" t="n">
-        <v>8014</v>
+        <v>8896</v>
       </c>
       <c r="G98" s="0" t="n">
-        <v>821</v>
+        <v>876</v>
       </c>
       <c r="H98" s="0" t="n">
-        <v>19.84</v>
+        <v>22.13</v>
       </c>
       <c r="I98" s="0" t="n">
-        <v>146</v>
+        <v>159</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="99">
@@ -3706,22 +3706,22 @@
         <v>12</v>
       </c>
       <c r="D99" s="0" t="n">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="E99" s="0" t="n">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="F99" s="0" t="n">
-        <v>3931</v>
+        <v>4543</v>
       </c>
       <c r="G99" s="0" t="n">
-        <v>724</v>
+        <v>840</v>
       </c>
       <c r="H99" s="0" t="n">
-        <v>10.68</v>
+        <v>12.28</v>
       </c>
       <c r="I99" s="0" t="n">
-        <v>138</v>
+        <v>163</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="100">
@@ -3735,22 +3735,22 @@
         <v>35</v>
       </c>
       <c r="D100" s="0" t="n">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="E100" s="0" t="n">
         <v>333</v>
       </c>
       <c r="F100" s="0" t="n">
-        <v>11119</v>
+        <v>12932</v>
       </c>
       <c r="G100" s="0" t="n">
-        <v>586</v>
+        <v>612</v>
       </c>
       <c r="H100" s="0" t="n">
-        <v>32.04</v>
+        <v>37.05</v>
       </c>
       <c r="I100" s="0" t="n">
-        <v>130</v>
+        <v>146</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="101">
@@ -3764,22 +3764,22 @@
         <v>51</v>
       </c>
       <c r="D101" s="0" t="n">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E101" s="0" t="n">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="F101" s="0" t="n">
-        <v>5384</v>
+        <v>6926</v>
       </c>
       <c r="G101" s="0" t="n">
-        <v>542</v>
+        <v>654</v>
       </c>
       <c r="H101" s="0" t="n">
-        <v>15.79</v>
+        <v>20.25</v>
       </c>
       <c r="I101" s="0" t="n">
-        <v>127</v>
+        <v>142</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="102">
@@ -3793,22 +3793,22 @@
         <v>51</v>
       </c>
       <c r="D102" s="0" t="n">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E102" s="0" t="n">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F102" s="0" t="n">
-        <v>6097</v>
+        <v>6135</v>
       </c>
       <c r="G102" s="0" t="n">
-        <v>603</v>
+        <v>629</v>
       </c>
       <c r="H102" s="0" t="n">
-        <v>17.88</v>
+        <v>17.94</v>
       </c>
       <c r="I102" s="0" t="n">
-        <v>134</v>
+        <v>144</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="103">
@@ -3822,22 +3822,22 @@
         <v>27</v>
       </c>
       <c r="D103" s="0" t="n">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="E103" s="0" t="n">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F103" s="0" t="n">
-        <v>5582</v>
+        <v>6476</v>
       </c>
       <c r="G103" s="0" t="n">
-        <v>692</v>
+        <v>729</v>
       </c>
       <c r="H103" s="0" t="n">
-        <v>16.47</v>
+        <v>18.99</v>
       </c>
       <c r="I103" s="0" t="n">
-        <v>121</v>
+        <v>136</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="104">
@@ -3851,22 +3851,22 @@
         <v>27</v>
       </c>
       <c r="D104" s="0" t="n">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="E104" s="0" t="n">
         <v>303</v>
       </c>
       <c r="F104" s="0" t="n">
-        <v>19386</v>
+        <v>22102</v>
       </c>
       <c r="G104" s="0" t="n">
-        <v>1560</v>
+        <v>1680</v>
       </c>
       <c r="H104" s="0" t="n">
-        <v>59.47</v>
+        <v>68.43</v>
       </c>
       <c r="I104" s="0" t="n">
-        <v>242</v>
+        <v>260</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="105">
@@ -3886,16 +3886,16 @@
         <v>282</v>
       </c>
       <c r="F105" s="0" t="n">
-        <v>10350</v>
+        <v>12122</v>
       </c>
       <c r="G105" s="0" t="n">
-        <v>411</v>
+        <v>444</v>
       </c>
       <c r="H105" s="0" t="n">
-        <v>32.55</v>
+        <v>38.12</v>
       </c>
       <c r="I105" s="0" t="n">
-        <v>117</v>
+        <v>131</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="106">
@@ -3906,25 +3906,25 @@
         <v>122</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="D106" s="0" t="n">
         <v>316</v>
       </c>
       <c r="E106" s="0" t="n">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="F106" s="0" t="n">
-        <v>5262</v>
+        <v>8477</v>
       </c>
       <c r="G106" s="0" t="n">
-        <v>545</v>
+        <v>954</v>
       </c>
       <c r="H106" s="0" t="n">
-        <v>16.65</v>
+        <v>26.83</v>
       </c>
       <c r="I106" s="0" t="n">
-        <v>119</v>
+        <v>144</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="107">
@@ -3938,22 +3938,22 @@
         <v>51</v>
       </c>
       <c r="D107" s="0" t="n">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E107" s="0" t="n">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F107" s="0" t="n">
-        <v>11176</v>
+        <v>12921</v>
       </c>
       <c r="G107" s="0" t="n">
-        <v>926</v>
+        <v>1035</v>
       </c>
       <c r="H107" s="0" t="n">
-        <v>35.37</v>
+        <v>41.02</v>
       </c>
       <c r="I107" s="0" t="n">
-        <v>164</v>
+        <v>187</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="108">
@@ -3964,25 +3964,25 @@
         <v>124</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="D108" s="0" t="n">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="E108" s="0" t="n">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F108" s="0" t="n">
-        <v>7591</v>
+        <v>5946</v>
       </c>
       <c r="G108" s="0" t="n">
-        <v>879</v>
+        <v>575</v>
       </c>
       <c r="H108" s="0" t="n">
-        <v>24.25</v>
+        <v>18.88</v>
       </c>
       <c r="I108" s="0" t="n">
-        <v>135</v>
+        <v>140</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="109">
@@ -3996,22 +3996,22 @@
         <v>51</v>
       </c>
       <c r="D109" s="0" t="n">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E109" s="0" t="n">
         <v>289</v>
       </c>
       <c r="F109" s="0" t="n">
-        <v>10292</v>
+        <v>11142</v>
       </c>
       <c r="G109" s="0" t="n">
-        <v>1287</v>
+        <v>1344</v>
       </c>
       <c r="H109" s="0" t="n">
-        <v>33.09</v>
+        <v>35.71</v>
       </c>
       <c r="I109" s="0" t="n">
-        <v>166</v>
+        <v>186</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="110">
@@ -4025,22 +4025,22 @@
         <v>35</v>
       </c>
       <c r="D110" s="0" t="n">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E110" s="0" t="n">
         <v>259</v>
       </c>
       <c r="F110" s="0" t="n">
-        <v>3889</v>
+        <v>4499</v>
       </c>
       <c r="G110" s="0" t="n">
-        <v>242</v>
+        <v>257</v>
       </c>
       <c r="H110" s="0" t="n">
-        <v>12.96</v>
+        <v>15.1</v>
       </c>
       <c r="I110" s="0" t="n">
-        <v>117</v>
+        <v>127</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="111">
@@ -4054,22 +4054,22 @@
         <v>14</v>
       </c>
       <c r="D111" s="0" t="n">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E111" s="0" t="n">
         <v>260</v>
       </c>
       <c r="F111" s="0" t="n">
-        <v>6764</v>
+        <v>7798</v>
       </c>
       <c r="G111" s="0" t="n">
-        <v>537</v>
+        <v>598</v>
       </c>
       <c r="H111" s="0" t="n">
-        <v>23.16</v>
+        <v>26.61</v>
       </c>
       <c r="I111" s="0" t="n">
-        <v>165</v>
+        <v>185</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="112">
@@ -4083,22 +4083,22 @@
         <v>51</v>
       </c>
       <c r="D112" s="0" t="n">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E112" s="0" t="n">
         <v>274</v>
       </c>
       <c r="F112" s="0" t="n">
-        <v>10581</v>
+        <v>11780</v>
       </c>
       <c r="G112" s="0" t="n">
-        <v>1119</v>
+        <v>1234</v>
       </c>
       <c r="H112" s="0" t="n">
-        <v>37.39</v>
+        <v>41.77</v>
       </c>
       <c r="I112" s="0" t="n">
-        <v>126</v>
+        <v>142</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="113">
@@ -4112,22 +4112,22 @@
         <v>35</v>
       </c>
       <c r="D113" s="0" t="n">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E113" s="0" t="n">
         <v>259</v>
       </c>
       <c r="F113" s="0" t="n">
-        <v>5466</v>
+        <v>6259</v>
       </c>
       <c r="G113" s="0" t="n">
-        <v>512</v>
+        <v>629</v>
       </c>
       <c r="H113" s="0" t="n">
-        <v>20.32</v>
+        <v>23.18</v>
       </c>
       <c r="I113" s="0" t="n">
-        <v>131</v>
+        <v>147</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="114">
@@ -4141,22 +4141,22 @@
         <v>27</v>
       </c>
       <c r="D114" s="0" t="n">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E114" s="0" t="n">
         <v>237</v>
       </c>
       <c r="F114" s="0" t="n">
-        <v>9804</v>
+        <v>11091</v>
       </c>
       <c r="G114" s="0" t="n">
-        <v>604</v>
+        <v>644</v>
       </c>
       <c r="H114" s="0" t="n">
-        <v>39.22</v>
+        <v>44.72</v>
       </c>
       <c r="I114" s="0" t="n">
-        <v>151</v>
+        <v>169</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="115">
@@ -4170,22 +4170,22 @@
         <v>51</v>
       </c>
       <c r="D115" s="0" t="n">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E115" s="0" t="n">
-        <v>233</v>
+        <v>209</v>
       </c>
       <c r="F115" s="0" t="n">
-        <v>3746</v>
+        <v>8481</v>
       </c>
       <c r="G115" s="0" t="n">
-        <v>183</v>
+        <v>956</v>
       </c>
       <c r="H115" s="0" t="n">
-        <v>15.61</v>
+        <v>35.05</v>
       </c>
       <c r="I115" s="0" t="n">
-        <v>94</v>
+        <v>161</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="116">
@@ -4199,22 +4199,22 @@
         <v>51</v>
       </c>
       <c r="D116" s="0" t="n">
+        <v>241</v>
+      </c>
+      <c r="E116" s="0" t="n">
         <v>234</v>
       </c>
-      <c r="E116" s="0" t="n">
-        <v>209</v>
-      </c>
       <c r="F116" s="0" t="n">
-        <v>8061</v>
+        <v>4336</v>
       </c>
       <c r="G116" s="0" t="n">
-        <v>935</v>
+        <v>193</v>
       </c>
       <c r="H116" s="0" t="n">
-        <v>34.45</v>
+        <v>17.99</v>
       </c>
       <c r="I116" s="0" t="n">
-        <v>151</v>
+        <v>112</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="117">
@@ -4234,16 +4234,16 @@
         <v>213</v>
       </c>
       <c r="F117" s="0" t="n">
-        <v>3962</v>
+        <v>4539</v>
       </c>
       <c r="G117" s="0" t="n">
-        <v>583</v>
+        <v>677</v>
       </c>
       <c r="H117" s="0" t="n">
-        <v>17.61</v>
+        <v>20.17</v>
       </c>
       <c r="I117" s="0" t="n">
-        <v>117</v>
+        <v>136</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="118">
@@ -4260,19 +4260,19 @@
         <v>222</v>
       </c>
       <c r="E118" s="0" t="n">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F118" s="0" t="n">
-        <v>4955</v>
+        <v>5605</v>
       </c>
       <c r="G118" s="0" t="n">
-        <v>776</v>
+        <v>833</v>
       </c>
       <c r="H118" s="0" t="n">
-        <v>22.32</v>
+        <v>25.25</v>
       </c>
       <c r="I118" s="0" t="n">
-        <v>117</v>
+        <v>125</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="119">
@@ -4292,16 +4292,16 @@
         <v>195</v>
       </c>
       <c r="F119" s="0" t="n">
-        <v>6775</v>
+        <v>7637</v>
       </c>
       <c r="G119" s="0" t="n">
-        <v>795</v>
+        <v>890</v>
       </c>
       <c r="H119" s="0" t="n">
-        <v>32.89</v>
+        <v>37.07</v>
       </c>
       <c r="I119" s="0" t="n">
-        <v>113</v>
+        <v>126</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="120">
@@ -4321,16 +4321,16 @@
         <v>153</v>
       </c>
       <c r="F120" s="0" t="n">
-        <v>3921</v>
+        <v>4321</v>
       </c>
       <c r="G120" s="0" t="n">
-        <v>340</v>
+        <v>357</v>
       </c>
       <c r="H120" s="0" t="n">
-        <v>23.91</v>
+        <v>26.35</v>
       </c>
       <c r="I120" s="0" t="n">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="121">
@@ -4344,22 +4344,22 @@
         <v>23</v>
       </c>
       <c r="D121" s="0" t="n">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="E121" s="0" t="n">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F121" s="0" t="n">
-        <v>4880</v>
+        <v>5650</v>
       </c>
       <c r="G121" s="0" t="n">
-        <v>289</v>
+        <v>327</v>
       </c>
       <c r="H121" s="0" t="n">
-        <v>30.5</v>
+        <v>34.66</v>
       </c>
       <c r="I121" s="0" t="n">
-        <v>109</v>
+        <v>127</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="122">
@@ -4373,22 +4373,22 @@
         <v>12</v>
       </c>
       <c r="D122" s="0" t="n">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E122" s="0" t="n">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F122" s="0" t="n">
-        <v>5459</v>
+        <v>6108</v>
       </c>
       <c r="G122" s="0" t="n">
-        <v>628</v>
+        <v>655</v>
       </c>
       <c r="H122" s="0" t="n">
-        <v>35.45</v>
+        <v>39.15</v>
       </c>
       <c r="I122" s="0" t="n">
-        <v>128</v>
+        <v>142</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="123">
@@ -4402,22 +4402,22 @@
         <v>51</v>
       </c>
       <c r="D123" s="0" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E123" s="0" t="n">
+        <v>139</v>
+      </c>
+      <c r="F123" s="0" t="n">
+        <v>4816</v>
+      </c>
+      <c r="G123" s="0" t="n">
+        <v>579</v>
+      </c>
+      <c r="H123" s="0" t="n">
+        <v>31.27</v>
+      </c>
+      <c r="I123" s="0" t="n">
         <v>138</v>
-      </c>
-      <c r="F123" s="0" t="n">
-        <v>4323</v>
-      </c>
-      <c r="G123" s="0" t="n">
-        <v>543</v>
-      </c>
-      <c r="H123" s="0" t="n">
-        <v>28.25</v>
-      </c>
-      <c r="I123" s="0" t="n">
-        <v>124</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="124">
@@ -4431,22 +4431,22 @@
         <v>23</v>
       </c>
       <c r="D124" s="0" t="n">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E124" s="0" t="n">
         <v>135</v>
       </c>
       <c r="F124" s="0" t="n">
-        <v>3920</v>
+        <v>4397</v>
       </c>
       <c r="G124" s="0" t="n">
-        <v>352</v>
+        <v>369</v>
       </c>
       <c r="H124" s="0" t="n">
-        <v>27.8</v>
+        <v>29.12</v>
       </c>
       <c r="I124" s="0" t="n">
-        <v>112</v>
+        <v>124</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="125">
@@ -4466,16 +4466,16 @@
         <v>135</v>
       </c>
       <c r="F125" s="0" t="n">
-        <v>6036</v>
+        <v>6987</v>
       </c>
       <c r="G125" s="0" t="n">
-        <v>605</v>
+        <v>647</v>
       </c>
       <c r="H125" s="0" t="n">
-        <v>42.81</v>
+        <v>49.55</v>
       </c>
       <c r="I125" s="0" t="n">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="126">
@@ -4489,22 +4489,22 @@
         <v>51</v>
       </c>
       <c r="D126" s="0" t="n">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E126" s="0" t="n">
         <v>129</v>
       </c>
       <c r="F126" s="0" t="n">
-        <v>6953</v>
+        <v>7949</v>
       </c>
       <c r="G126" s="0" t="n">
-        <v>605</v>
+        <v>669</v>
       </c>
       <c r="H126" s="0" t="n">
-        <v>49.66</v>
+        <v>57.19</v>
       </c>
       <c r="I126" s="0" t="n">
-        <v>130</v>
+        <v>141</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="127">
@@ -4518,22 +4518,22 @@
         <v>35</v>
       </c>
       <c r="D127" s="0" t="n">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E127" s="0" t="n">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F127" s="0" t="n">
-        <v>2143</v>
+        <v>2524</v>
       </c>
       <c r="G127" s="0" t="n">
-        <v>162</v>
+        <v>183</v>
       </c>
       <c r="H127" s="0" t="n">
-        <v>15.99</v>
+        <v>18.7</v>
       </c>
       <c r="I127" s="0" t="n">
-        <v>98</v>
+        <v>119</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="128">
@@ -4553,16 +4553,16 @@
         <v>129</v>
       </c>
       <c r="F128" s="0" t="n">
-        <v>2273</v>
+        <v>2546</v>
       </c>
       <c r="G128" s="0" t="n">
-        <v>346</v>
+        <v>367</v>
       </c>
       <c r="H128" s="0" t="n">
-        <v>17.09</v>
+        <v>19.14</v>
       </c>
       <c r="I128" s="0" t="n">
-        <v>80</v>
+        <v>95</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="129">
@@ -4576,22 +4576,22 @@
         <v>51</v>
       </c>
       <c r="D129" s="0" t="n">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E129" s="0" t="n">
         <v>110</v>
       </c>
       <c r="F129" s="0" t="n">
-        <v>6299</v>
+        <v>6857</v>
       </c>
       <c r="G129" s="0" t="n">
-        <v>568</v>
+        <v>595</v>
       </c>
       <c r="H129" s="0" t="n">
-        <v>50.8</v>
+        <v>55.75</v>
       </c>
       <c r="I129" s="0" t="n">
-        <v>145</v>
+        <v>158</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="130">
@@ -4605,22 +4605,22 @@
         <v>27</v>
       </c>
       <c r="D130" s="0" t="n">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E130" s="0" t="n">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F130" s="0" t="n">
-        <v>3050</v>
+        <v>3525</v>
       </c>
       <c r="G130" s="0" t="n">
-        <v>203</v>
+        <v>228</v>
       </c>
       <c r="H130" s="0" t="n">
-        <v>26.75</v>
+        <v>30.13</v>
       </c>
       <c r="I130" s="0" t="n">
-        <v>110</v>
+        <v>123</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="131">
@@ -4634,22 +4634,22 @@
         <v>51</v>
       </c>
       <c r="D131" s="0" t="n">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E131" s="0" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F131" s="0" t="n">
-        <v>2383</v>
+        <v>2866</v>
       </c>
       <c r="G131" s="0" t="n">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="H131" s="0" t="n">
-        <v>21.09</v>
+        <v>24.92</v>
       </c>
       <c r="I131" s="0" t="n">
-        <v>104</v>
+        <v>133</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="132">
@@ -4663,22 +4663,22 @@
         <v>51</v>
       </c>
       <c r="D132" s="0" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E132" s="0" t="n">
         <v>105</v>
       </c>
       <c r="F132" s="0" t="n">
-        <v>3225</v>
+        <v>3544</v>
       </c>
       <c r="G132" s="0" t="n">
-        <v>273</v>
+        <v>301</v>
       </c>
       <c r="H132" s="0" t="n">
-        <v>28.79</v>
+        <v>31.93</v>
       </c>
       <c r="I132" s="0" t="n">
-        <v>120</v>
+        <v>129</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="133">
@@ -4698,16 +4698,16 @@
         <v>104</v>
       </c>
       <c r="F133" s="0" t="n">
-        <v>3188</v>
+        <v>3586</v>
       </c>
       <c r="G133" s="0" t="n">
-        <v>403</v>
+        <v>433</v>
       </c>
       <c r="H133" s="0" t="n">
-        <v>28.72</v>
+        <v>32.31</v>
       </c>
       <c r="I133" s="0" t="n">
-        <v>107</v>
+        <v>117</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="134">
@@ -4721,22 +4721,22 @@
         <v>12</v>
       </c>
       <c r="D134" s="0" t="n">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E134" s="0" t="n">
         <v>106</v>
       </c>
       <c r="F134" s="0" t="n">
-        <v>1627</v>
+        <v>1866</v>
       </c>
       <c r="G134" s="0" t="n">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="H134" s="0" t="n">
-        <v>14.93</v>
+        <v>17.28</v>
       </c>
       <c r="I134" s="0" t="n">
-        <v>95</v>
+        <v>104</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="135">
@@ -4756,16 +4756,16 @@
         <v>104</v>
       </c>
       <c r="F135" s="0" t="n">
-        <v>2506</v>
+        <v>2927</v>
       </c>
       <c r="G135" s="0" t="n">
-        <v>191</v>
+        <v>222</v>
       </c>
       <c r="H135" s="0" t="n">
-        <v>23.2</v>
+        <v>27.1</v>
       </c>
       <c r="I135" s="0" t="n">
-        <v>85</v>
+        <v>104</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="136">
@@ -4785,16 +4785,16 @@
         <v>99</v>
       </c>
       <c r="F136" s="0" t="n">
-        <v>1512</v>
+        <v>1732</v>
       </c>
       <c r="G136" s="0" t="n">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="H136" s="0" t="n">
-        <v>14.4</v>
+        <v>16.5</v>
       </c>
       <c r="I136" s="0" t="n">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="137">
@@ -4808,22 +4808,22 @@
         <v>12</v>
       </c>
       <c r="D137" s="0" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E137" s="0" t="n">
         <v>92</v>
       </c>
       <c r="F137" s="0" t="n">
-        <v>2124</v>
+        <v>2385</v>
       </c>
       <c r="G137" s="0" t="n">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="H137" s="0" t="n">
-        <v>20.62</v>
+        <v>22.93</v>
       </c>
       <c r="I137" s="0" t="n">
-        <v>105</v>
+        <v>129</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="138">
@@ -4840,19 +4840,19 @@
         <v>102</v>
       </c>
       <c r="E138" s="0" t="n">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F138" s="0" t="n">
-        <v>3303</v>
+        <v>3596</v>
       </c>
       <c r="G138" s="0" t="n">
-        <v>246</v>
+        <v>267</v>
       </c>
       <c r="H138" s="0" t="n">
-        <v>32.38</v>
+        <v>35.25</v>
       </c>
       <c r="I138" s="0" t="n">
-        <v>119</v>
+        <v>128</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="139">
@@ -4866,22 +4866,22 @@
         <v>14</v>
       </c>
       <c r="D139" s="0" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E139" s="0" t="n">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F139" s="0" t="n">
-        <v>4887</v>
+        <v>5564</v>
       </c>
       <c r="G139" s="0" t="n">
-        <v>398</v>
+        <v>419</v>
       </c>
       <c r="H139" s="0" t="n">
-        <v>48.87</v>
+        <v>55.09</v>
       </c>
       <c r="I139" s="0" t="n">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="140">
@@ -4895,22 +4895,22 @@
         <v>27</v>
       </c>
       <c r="D140" s="0" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E140" s="0" t="n">
         <v>86</v>
       </c>
       <c r="F140" s="0" t="n">
-        <v>2037</v>
+        <v>2333</v>
       </c>
       <c r="G140" s="0" t="n">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="H140" s="0" t="n">
-        <v>20.58</v>
+        <v>23.81</v>
       </c>
       <c r="I140" s="0" t="n">
-        <v>102</v>
+        <v>112</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="141">
@@ -4924,22 +4924,22 @@
         <v>14</v>
       </c>
       <c r="D141" s="0" t="n">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E141" s="0" t="n">
         <v>88</v>
       </c>
       <c r="F141" s="0" t="n">
-        <v>2622</v>
+        <v>3027</v>
       </c>
       <c r="G141" s="0" t="n">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="H141" s="0" t="n">
-        <v>27.03</v>
+        <v>31.53</v>
       </c>
       <c r="I141" s="0" t="n">
-        <v>103</v>
+        <v>120</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="142">
@@ -4953,22 +4953,22 @@
         <v>27</v>
       </c>
       <c r="D142" s="0" t="n">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E142" s="0" t="n">
         <v>84</v>
       </c>
       <c r="F142" s="0" t="n">
-        <v>1975</v>
+        <v>2215</v>
       </c>
       <c r="G142" s="0" t="n">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="H142" s="0" t="n">
-        <v>20.79</v>
+        <v>23.82</v>
       </c>
       <c r="I142" s="0" t="n">
-        <v>79</v>
+        <v>86</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="143">
@@ -4988,16 +4988,16 @@
         <v>86</v>
       </c>
       <c r="F143" s="0" t="n">
-        <v>3293</v>
+        <v>3670</v>
       </c>
       <c r="G143" s="0" t="n">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="H143" s="0" t="n">
-        <v>36.59</v>
+        <v>40.78</v>
       </c>
       <c r="I143" s="0" t="n">
-        <v>100</v>
+        <v>109</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="144">
@@ -5017,16 +5017,16 @@
         <v>85</v>
       </c>
       <c r="F144" s="0" t="n">
-        <v>3109</v>
+        <v>3516</v>
       </c>
       <c r="G144" s="0" t="n">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="H144" s="0" t="n">
-        <v>35.74</v>
+        <v>40.41</v>
       </c>
       <c r="I144" s="0" t="n">
-        <v>96</v>
+        <v>107</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="145">
@@ -5037,25 +5037,25 @@
         <v>161</v>
       </c>
       <c r="C145" s="0" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="D145" s="0" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E145" s="0" t="n">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="F145" s="0" t="n">
-        <v>1084</v>
+        <v>2176</v>
       </c>
       <c r="G145" s="0" t="n">
-        <v>80</v>
+        <v>152</v>
       </c>
       <c r="H145" s="0" t="n">
-        <v>13.38</v>
+        <v>26.54</v>
       </c>
       <c r="I145" s="0" t="n">
-        <v>63</v>
+        <v>112</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="146">
@@ -5066,25 +5066,25 @@
         <v>162</v>
       </c>
       <c r="C146" s="0" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="D146" s="0" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E146" s="0" t="n">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="F146" s="0" t="n">
-        <v>1988</v>
+        <v>1283</v>
       </c>
       <c r="G146" s="0" t="n">
-        <v>137</v>
+        <v>95</v>
       </c>
       <c r="H146" s="0" t="n">
-        <v>24.54</v>
+        <v>15.65</v>
       </c>
       <c r="I146" s="0" t="n">
-        <v>107</v>
+        <v>78</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="147">
@@ -5098,22 +5098,22 @@
         <v>51</v>
       </c>
       <c r="D147" s="0" t="n">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E147" s="0" t="n">
         <v>73</v>
       </c>
       <c r="F147" s="0" t="n">
-        <v>866</v>
+        <v>896</v>
       </c>
       <c r="G147" s="0" t="n">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="H147" s="0" t="n">
-        <v>10.96</v>
+        <v>11.64</v>
       </c>
       <c r="I147" s="0" t="n">
-        <v>63</v>
+        <v>72</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="148">
@@ -5133,16 +5133,16 @@
         <v>74</v>
       </c>
       <c r="F148" s="0" t="n">
-        <v>2012</v>
+        <v>2378</v>
       </c>
       <c r="G148" s="0" t="n">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="H148" s="0" t="n">
-        <v>27.19</v>
+        <v>32.14</v>
       </c>
       <c r="I148" s="0" t="n">
-        <v>103</v>
+        <v>115</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="149">
@@ -5156,22 +5156,22 @@
         <v>27</v>
       </c>
       <c r="D149" s="0" t="n">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E149" s="0" t="n">
         <v>63</v>
       </c>
       <c r="F149" s="0" t="n">
-        <v>1957</v>
+        <v>2140</v>
       </c>
       <c r="G149" s="0" t="n">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="H149" s="0" t="n">
-        <v>27.96</v>
+        <v>29.32</v>
       </c>
       <c r="I149" s="0" t="n">
-        <v>81</v>
+        <v>93</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="150">
@@ -5185,22 +5185,22 @@
         <v>23</v>
       </c>
       <c r="D150" s="0" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E150" s="0" t="n">
         <v>61</v>
       </c>
       <c r="F150" s="0" t="n">
-        <v>1879</v>
+        <v>2121</v>
       </c>
       <c r="G150" s="0" t="n">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="H150" s="0" t="n">
-        <v>28.04</v>
+        <v>30.3</v>
       </c>
       <c r="I150" s="0" t="n">
-        <v>99</v>
+        <v>111</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="151">
@@ -5214,22 +5214,22 @@
         <v>12</v>
       </c>
       <c r="D151" s="0" t="n">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E151" s="0" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F151" s="0" t="n">
-        <v>611</v>
+        <v>663</v>
       </c>
       <c r="G151" s="0" t="n">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="H151" s="0" t="n">
-        <v>9.26</v>
+        <v>9.75</v>
       </c>
       <c r="I151" s="0" t="n">
-        <v>58</v>
+        <v>72</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="152">
@@ -5240,25 +5240,25 @@
         <v>168</v>
       </c>
       <c r="C152" s="0" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="D152" s="0" t="n">
         <v>58</v>
       </c>
       <c r="E152" s="0" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F152" s="0" t="n">
-        <v>1784</v>
+        <v>1006</v>
       </c>
       <c r="G152" s="0" t="n">
-        <v>136</v>
+        <v>45</v>
       </c>
       <c r="H152" s="0" t="n">
-        <v>30.76</v>
+        <v>17.34</v>
       </c>
       <c r="I152" s="0" t="n">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="153">
@@ -5269,25 +5269,25 @@
         <v>169</v>
       </c>
       <c r="C153" s="0" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="D153" s="0" t="n">
         <v>58</v>
       </c>
       <c r="E153" s="0" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F153" s="0" t="n">
-        <v>886</v>
+        <v>1970</v>
       </c>
       <c r="G153" s="0" t="n">
-        <v>46</v>
+        <v>138</v>
       </c>
       <c r="H153" s="0" t="n">
-        <v>15.28</v>
+        <v>33.97</v>
       </c>
       <c r="I153" s="0" t="n">
-        <v>73</v>
+        <v>104</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="154">
@@ -5307,16 +5307,16 @@
         <v>45</v>
       </c>
       <c r="F154" s="0" t="n">
-        <v>1919</v>
+        <v>2215</v>
       </c>
       <c r="G154" s="0" t="n">
-        <v>230</v>
+        <v>263</v>
       </c>
       <c r="H154" s="0" t="n">
-        <v>40.83</v>
+        <v>47.13</v>
       </c>
       <c r="I154" s="0" t="n">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="155">
@@ -5336,16 +5336,16 @@
         <v>41</v>
       </c>
       <c r="F155" s="0" t="n">
-        <v>906</v>
+        <v>1036</v>
       </c>
       <c r="G155" s="0" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="H155" s="0" t="n">
-        <v>20.59</v>
+        <v>23.55</v>
       </c>
       <c r="I155" s="0" t="n">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="156">
@@ -5356,25 +5356,25 @@
         <v>172</v>
       </c>
       <c r="C156" s="0" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D156" s="0" t="n">
         <v>43</v>
       </c>
       <c r="E156" s="0" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F156" s="0" t="n">
-        <v>1318</v>
+        <v>1079</v>
       </c>
       <c r="G156" s="0" t="n">
-        <v>23</v>
+        <v>159</v>
       </c>
       <c r="H156" s="0" t="n">
-        <v>30.65</v>
+        <v>25.09</v>
       </c>
       <c r="I156" s="0" t="n">
-        <v>60</v>
+        <v>72</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="157">
@@ -5385,25 +5385,25 @@
         <v>173</v>
       </c>
       <c r="C157" s="0" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D157" s="0" t="n">
         <v>43</v>
       </c>
       <c r="E157" s="0" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F157" s="0" t="n">
-        <v>965</v>
+        <v>3026</v>
       </c>
       <c r="G157" s="0" t="n">
-        <v>143</v>
+        <v>28</v>
       </c>
       <c r="H157" s="0" t="n">
-        <v>22.44</v>
+        <v>70.37</v>
       </c>
       <c r="I157" s="0" t="n">
-        <v>69</v>
+        <v>85</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="158">
@@ -5420,19 +5420,19 @@
         <v>43</v>
       </c>
       <c r="E158" s="0" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F158" s="0" t="n">
-        <v>2683</v>
+        <v>1466</v>
       </c>
       <c r="G158" s="0" t="n">
         <v>23</v>
       </c>
       <c r="H158" s="0" t="n">
-        <v>62.4</v>
+        <v>34.09</v>
       </c>
       <c r="I158" s="0" t="n">
-        <v>77</v>
+        <v>64</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="159">
@@ -5443,25 +5443,25 @@
         <v>175</v>
       </c>
       <c r="C159" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D159" s="0" t="n">
         <v>41</v>
       </c>
       <c r="E159" s="0" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F159" s="0" t="n">
-        <v>893</v>
+        <v>1305</v>
       </c>
       <c r="G159" s="0" t="n">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="H159" s="0" t="n">
-        <v>21.78</v>
+        <v>31.83</v>
       </c>
       <c r="I159" s="0" t="n">
-        <v>75</v>
+        <v>89</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="160">
@@ -5472,25 +5472,25 @@
         <v>176</v>
       </c>
       <c r="C160" s="0" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D160" s="0" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E160" s="0" t="n">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="F160" s="0" t="n">
-        <v>1191</v>
+        <v>1713</v>
       </c>
       <c r="G160" s="0" t="n">
-        <v>50</v>
+        <v>201</v>
       </c>
       <c r="H160" s="0" t="n">
-        <v>29.05</v>
+        <v>42.83</v>
       </c>
       <c r="I160" s="0" t="n">
-        <v>76</v>
+        <v>85</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="161">
@@ -5501,25 +5501,25 @@
         <v>177</v>
       </c>
       <c r="C161" s="0" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D161" s="0" t="n">
         <v>40</v>
       </c>
       <c r="E161" s="0" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F161" s="0" t="n">
-        <v>1533</v>
+        <v>908</v>
       </c>
       <c r="G161" s="0" t="n">
-        <v>177</v>
+        <v>42</v>
       </c>
       <c r="H161" s="0" t="n">
-        <v>38.33</v>
+        <v>22.7</v>
       </c>
       <c r="I161" s="0" t="n">
-        <v>72</v>
+        <v>82</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="162">
@@ -5539,16 +5539,16 @@
         <v>33</v>
       </c>
       <c r="F162" s="0" t="n">
-        <v>2570</v>
+        <v>2900</v>
       </c>
       <c r="G162" s="0" t="n">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H162" s="0" t="n">
-        <v>67.63</v>
+        <v>76.32</v>
       </c>
       <c r="I162" s="0" t="n">
-        <v>105</v>
+        <v>113</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="163">
@@ -5568,16 +5568,16 @@
         <v>33</v>
       </c>
       <c r="F163" s="0" t="n">
-        <v>818</v>
+        <v>916</v>
       </c>
       <c r="G163" s="0" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H163" s="0" t="n">
-        <v>22.11</v>
+        <v>24.76</v>
       </c>
       <c r="I163" s="0" t="n">
-        <v>78</v>
+        <v>88</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="164">
@@ -5597,16 +5597,16 @@
         <v>34</v>
       </c>
       <c r="F164" s="0" t="n">
-        <v>1122</v>
+        <v>1252</v>
       </c>
       <c r="G164" s="0" t="n">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="H164" s="0" t="n">
-        <v>30.32</v>
+        <v>33.84</v>
       </c>
       <c r="I164" s="0" t="n">
-        <v>74</v>
+        <v>81</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="165">
@@ -5617,25 +5617,25 @@
         <v>181</v>
       </c>
       <c r="C165" s="0" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="D165" s="0" t="n">
         <v>36</v>
       </c>
       <c r="E165" s="0" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F165" s="0" t="n">
-        <v>2456</v>
+        <v>803</v>
       </c>
       <c r="G165" s="0" t="n">
-        <v>95</v>
+        <v>19</v>
       </c>
       <c r="H165" s="0" t="n">
-        <v>68.22</v>
+        <v>22.31</v>
       </c>
       <c r="I165" s="0" t="n">
-        <v>76</v>
+        <v>55</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="166">
@@ -5646,25 +5646,25 @@
         <v>182</v>
       </c>
       <c r="C166" s="0" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="D166" s="0" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E166" s="0" t="n">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F166" s="0" t="n">
-        <v>693</v>
+        <v>2692</v>
       </c>
       <c r="G166" s="0" t="n">
-        <v>18</v>
+        <v>107</v>
       </c>
       <c r="H166" s="0" t="n">
-        <v>19.8</v>
+        <v>74.78</v>
       </c>
       <c r="I166" s="0" t="n">
-        <v>46</v>
+        <v>86</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="167">
@@ -5684,16 +5684,16 @@
         <v>33</v>
       </c>
       <c r="F167" s="0" t="n">
-        <v>517</v>
+        <v>560</v>
       </c>
       <c r="G167" s="0" t="n">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H167" s="0" t="n">
-        <v>15.67</v>
+        <v>16.97</v>
       </c>
       <c r="I167" s="0" t="n">
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="168">
@@ -5713,16 +5713,16 @@
         <v>30</v>
       </c>
       <c r="F168" s="0" t="n">
-        <v>881</v>
+        <v>1099</v>
       </c>
       <c r="G168" s="0" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H168" s="0" t="n">
-        <v>28.42</v>
+        <v>35.45</v>
       </c>
       <c r="I168" s="0" t="n">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="169">
@@ -5742,16 +5742,16 @@
         <v>26</v>
       </c>
       <c r="F169" s="0" t="n">
-        <v>440</v>
+        <v>492</v>
       </c>
       <c r="G169" s="0" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H169" s="0" t="n">
-        <v>15.17</v>
+        <v>16.97</v>
       </c>
       <c r="I169" s="0" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="170">
@@ -5771,16 +5771,16 @@
         <v>27</v>
       </c>
       <c r="F170" s="0" t="n">
-        <v>759</v>
+        <v>885</v>
       </c>
       <c r="G170" s="0" t="n">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="H170" s="0" t="n">
-        <v>28.11</v>
+        <v>32.78</v>
       </c>
       <c r="I170" s="0" t="n">
-        <v>78</v>
+        <v>92</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="171">
@@ -5800,16 +5800,16 @@
         <v>22</v>
       </c>
       <c r="F171" s="0" t="n">
-        <v>309</v>
+        <v>351</v>
       </c>
       <c r="G171" s="0" t="n">
         <v>10</v>
       </c>
       <c r="H171" s="0" t="n">
-        <v>11.88</v>
+        <v>13.5</v>
       </c>
       <c r="I171" s="0" t="n">
-        <v>50</v>
+        <v>58</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="172">
@@ -5829,16 +5829,16 @@
         <v>24</v>
       </c>
       <c r="F172" s="0" t="n">
-        <v>432</v>
+        <v>496</v>
       </c>
       <c r="G172" s="0" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H172" s="0" t="n">
-        <v>17.28</v>
+        <v>19.84</v>
       </c>
       <c r="I172" s="0" t="n">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="173">
@@ -5858,16 +5858,16 @@
         <v>22</v>
       </c>
       <c r="F173" s="0" t="n">
-        <v>593</v>
+        <v>681</v>
       </c>
       <c r="G173" s="0" t="n">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H173" s="0" t="n">
-        <v>24.71</v>
+        <v>28.38</v>
       </c>
       <c r="I173" s="0" t="n">
-        <v>49</v>
+        <v>57</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="174">
@@ -5887,16 +5887,16 @@
         <v>22</v>
       </c>
       <c r="F174" s="0" t="n">
-        <v>303</v>
+        <v>347</v>
       </c>
       <c r="G174" s="0" t="n">
         <v>10</v>
       </c>
       <c r="H174" s="0" t="n">
-        <v>13.17</v>
+        <v>15.09</v>
       </c>
       <c r="I174" s="0" t="n">
-        <v>56</v>
+        <v>66</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="175">
@@ -5910,22 +5910,22 @@
         <v>51</v>
       </c>
       <c r="D175" s="0" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E175" s="0" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F175" s="0" t="n">
-        <v>1105</v>
+        <v>458</v>
       </c>
       <c r="G175" s="0" t="n">
-        <v>162</v>
+        <v>47</v>
       </c>
       <c r="H175" s="0" t="n">
-        <v>52.62</v>
+        <v>20.82</v>
       </c>
       <c r="I175" s="0" t="n">
-        <v>68</v>
+        <v>90</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="176">
@@ -5942,19 +5942,19 @@
         <v>21</v>
       </c>
       <c r="E176" s="0" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F176" s="0" t="n">
-        <v>286</v>
+        <v>451</v>
       </c>
       <c r="G176" s="0" t="n">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="H176" s="0" t="n">
-        <v>13.62</v>
+        <v>21.48</v>
       </c>
       <c r="I176" s="0" t="n">
-        <v>43</v>
+        <v>68</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="177">
@@ -5971,19 +5971,19 @@
         <v>21</v>
       </c>
       <c r="E177" s="0" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F177" s="0" t="n">
-        <v>379</v>
+        <v>313</v>
       </c>
       <c r="G177" s="0" t="n">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="H177" s="0" t="n">
-        <v>18.05</v>
+        <v>14.9</v>
       </c>
       <c r="I177" s="0" t="n">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="178">
@@ -6000,19 +6000,19 @@
         <v>21</v>
       </c>
       <c r="E178" s="0" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F178" s="0" t="n">
-        <v>401</v>
+        <v>1245</v>
       </c>
       <c r="G178" s="0" t="n">
-        <v>43</v>
+        <v>171</v>
       </c>
       <c r="H178" s="0" t="n">
-        <v>19.1</v>
+        <v>59.29</v>
       </c>
       <c r="I178" s="0" t="n">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="179">
@@ -6032,16 +6032,16 @@
         <v>17</v>
       </c>
       <c r="F179" s="0" t="n">
-        <v>281</v>
+        <v>319</v>
       </c>
       <c r="G179" s="0" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H179" s="0" t="n">
-        <v>14.79</v>
+        <v>16.79</v>
       </c>
       <c r="I179" s="0" t="n">
-        <v>49</v>
+        <v>57</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="180">
@@ -6061,16 +6061,16 @@
         <v>18</v>
       </c>
       <c r="F180" s="0" t="n">
-        <v>480</v>
+        <v>555</v>
       </c>
       <c r="G180" s="0" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H180" s="0" t="n">
-        <v>26.67</v>
+        <v>30.83</v>
       </c>
       <c r="I180" s="0" t="n">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="181">
@@ -6081,25 +6081,25 @@
         <v>197</v>
       </c>
       <c r="C181" s="0" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D181" s="0" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E181" s="0" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="F181" s="0" t="n">
-        <v>623</v>
+        <v>166</v>
       </c>
       <c r="G181" s="0" t="n">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="H181" s="0" t="n">
-        <v>38.94</v>
+        <v>9.76</v>
       </c>
       <c r="I181" s="0" t="n">
-        <v>61</v>
+        <v>36</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="182">
@@ -6119,16 +6119,16 @@
         <v>16</v>
       </c>
       <c r="F182" s="0" t="n">
-        <v>395</v>
+        <v>436</v>
       </c>
       <c r="G182" s="0" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H182" s="0" t="n">
-        <v>24.69</v>
+        <v>27.25</v>
       </c>
       <c r="I182" s="0" t="n">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="183">
@@ -6139,25 +6139,25 @@
         <v>199</v>
       </c>
       <c r="C183" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D183" s="0" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E183" s="0" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F183" s="0" t="n">
-        <v>297</v>
+        <v>692</v>
       </c>
       <c r="G183" s="0" t="n">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="H183" s="0" t="n">
-        <v>21.21</v>
+        <v>43.25</v>
       </c>
       <c r="I183" s="0" t="n">
-        <v>45</v>
+        <v>71</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="184">
@@ -6168,25 +6168,25 @@
         <v>200</v>
       </c>
       <c r="C184" s="0" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D184" s="0" t="n">
         <v>14</v>
       </c>
       <c r="E184" s="0" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F184" s="0" t="n">
-        <v>359</v>
+        <v>213</v>
       </c>
       <c r="G184" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H184" s="0" t="n">
-        <v>25.64</v>
+        <v>15.21</v>
       </c>
       <c r="I184" s="0" t="n">
-        <v>49</v>
+        <v>61</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="185">
@@ -6203,19 +6203,19 @@
         <v>14</v>
       </c>
       <c r="E185" s="0" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F185" s="0" t="n">
-        <v>193</v>
+        <v>440</v>
       </c>
       <c r="G185" s="0" t="n">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="H185" s="0" t="n">
-        <v>13.79</v>
+        <v>31.43</v>
       </c>
       <c r="I185" s="0" t="n">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="186">
@@ -6232,19 +6232,19 @@
         <v>14</v>
       </c>
       <c r="E186" s="0" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F186" s="0" t="n">
-        <v>391</v>
+        <v>322</v>
       </c>
       <c r="G186" s="0" t="n">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="H186" s="0" t="n">
-        <v>27.93</v>
+        <v>23</v>
       </c>
       <c r="I186" s="0" t="n">
-        <v>42</v>
+        <v>53</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="187">
@@ -6255,25 +6255,25 @@
         <v>203</v>
       </c>
       <c r="C187" s="0" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D187" s="0" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E187" s="0" t="n">
         <v>12</v>
       </c>
       <c r="F187" s="0" t="n">
-        <v>420</v>
+        <v>401</v>
       </c>
       <c r="G187" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H187" s="0" t="n">
-        <v>35</v>
+        <v>30.85</v>
       </c>
       <c r="I187" s="0" t="n">
-        <v>39</v>
+        <v>50</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="188">
@@ -6293,16 +6293,16 @@
         <v>11</v>
       </c>
       <c r="F188" s="0" t="n">
-        <v>1117</v>
+        <v>1271</v>
       </c>
       <c r="G188" s="0" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H188" s="0" t="n">
-        <v>93.08</v>
+        <v>105.92</v>
       </c>
       <c r="I188" s="0" t="n">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="189">
@@ -6313,25 +6313,25 @@
         <v>205</v>
       </c>
       <c r="C189" s="0" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="D189" s="0" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E189" s="0" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F189" s="0" t="n">
-        <v>310</v>
+        <v>470</v>
       </c>
       <c r="G189" s="0" t="n">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="H189" s="0" t="n">
-        <v>28.18</v>
+        <v>39.17</v>
       </c>
       <c r="I189" s="0" t="n">
-        <v>63</v>
+        <v>48</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="190">
@@ -6342,7 +6342,7 @@
         <v>206</v>
       </c>
       <c r="C190" s="0" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="D190" s="0" t="n">
         <v>11</v>
@@ -6351,16 +6351,16 @@
         <v>10</v>
       </c>
       <c r="F190" s="0" t="n">
-        <v>193</v>
+        <v>335</v>
       </c>
       <c r="G190" s="0" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="H190" s="0" t="n">
-        <v>17.55</v>
+        <v>30.45</v>
       </c>
       <c r="I190" s="0" t="n">
-        <v>46</v>
+        <v>64</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="191">
@@ -6377,19 +6377,19 @@
         <v>11</v>
       </c>
       <c r="E191" s="0" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F191" s="0" t="n">
-        <v>310</v>
+        <v>365</v>
       </c>
       <c r="G191" s="0" t="n">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="H191" s="0" t="n">
-        <v>28.18</v>
+        <v>33.18</v>
       </c>
       <c r="I191" s="0" t="n">
-        <v>55</v>
+        <v>68</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="192">
@@ -6400,25 +6400,25 @@
         <v>208</v>
       </c>
       <c r="C192" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D192" s="0" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E192" s="0" t="n">
         <v>10</v>
       </c>
       <c r="F192" s="0" t="n">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="G192" s="0" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="H192" s="0" t="n">
-        <v>23</v>
+        <v>20.55</v>
       </c>
       <c r="I192" s="0" t="n">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="193">
@@ -6429,25 +6429,25 @@
         <v>209</v>
       </c>
       <c r="C193" s="0" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D193" s="0" t="n">
         <v>10</v>
       </c>
       <c r="E193" s="0" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F193" s="0" t="n">
-        <v>660</v>
+        <v>255</v>
       </c>
       <c r="G193" s="0" t="n">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="H193" s="0" t="n">
-        <v>66</v>
+        <v>25.5</v>
       </c>
       <c r="I193" s="0" t="n">
-        <v>37</v>
+        <v>50</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="194">
@@ -6467,16 +6467,16 @@
         <v>10</v>
       </c>
       <c r="F194" s="0" t="n">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G194" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H194" s="0" t="n">
-        <v>4.3</v>
+        <v>5.3</v>
       </c>
       <c r="I194" s="0" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="195">
@@ -6487,25 +6487,25 @@
         <v>211</v>
       </c>
       <c r="C195" s="0" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D195" s="0" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E195" s="0" t="n">
         <v>8</v>
       </c>
       <c r="F195" s="0" t="n">
-        <v>237</v>
+        <v>733</v>
       </c>
       <c r="G195" s="0" t="n">
-        <v>4</v>
+        <v>62</v>
       </c>
       <c r="H195" s="0" t="n">
-        <v>26.33</v>
+        <v>73.3</v>
       </c>
       <c r="I195" s="0" t="n">
-        <v>33</v>
+        <v>43</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="196">
@@ -6516,7 +6516,7 @@
         <v>212</v>
       </c>
       <c r="C196" s="0" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D196" s="0" t="n">
         <v>9</v>
@@ -6525,16 +6525,16 @@
         <v>9</v>
       </c>
       <c r="F196" s="0" t="n">
-        <v>468</v>
+        <v>296</v>
       </c>
       <c r="G196" s="0" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="H196" s="0" t="n">
-        <v>52</v>
+        <v>32.89</v>
       </c>
       <c r="I196" s="0" t="n">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="197">
@@ -6545,7 +6545,7 @@
         <v>213</v>
       </c>
       <c r="C197" s="0" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="D197" s="0" t="n">
         <v>9</v>
@@ -6554,16 +6554,16 @@
         <v>9</v>
       </c>
       <c r="F197" s="0" t="n">
-        <v>540</v>
+        <v>530</v>
       </c>
       <c r="G197" s="0" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H197" s="0" t="n">
-        <v>60</v>
+        <v>58.89</v>
       </c>
       <c r="I197" s="0" t="n">
-        <v>38</v>
+        <v>48</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="198">
@@ -6574,7 +6574,7 @@
         <v>214</v>
       </c>
       <c r="C198" s="0" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="D198" s="0" t="n">
         <v>9</v>
@@ -6583,16 +6583,16 @@
         <v>9</v>
       </c>
       <c r="F198" s="0" t="n">
-        <v>238</v>
+        <v>102</v>
       </c>
       <c r="G198" s="0" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="H198" s="0" t="n">
-        <v>26.44</v>
+        <v>11.33</v>
       </c>
       <c r="I198" s="0" t="n">
-        <v>58</v>
+        <v>39</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="199">
@@ -6603,25 +6603,25 @@
         <v>215</v>
       </c>
       <c r="C199" s="0" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D199" s="0" t="n">
         <v>9</v>
       </c>
       <c r="E199" s="0" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F199" s="0" t="n">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="G199" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H199" s="0" t="n">
-        <v>30.11</v>
+        <v>29</v>
       </c>
       <c r="I199" s="0" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="200">
@@ -6632,25 +6632,25 @@
         <v>216</v>
       </c>
       <c r="C200" s="0" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="D200" s="0" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E200" s="0" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F200" s="0" t="n">
-        <v>90</v>
+        <v>261</v>
       </c>
       <c r="G200" s="0" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="H200" s="0" t="n">
-        <v>11.25</v>
+        <v>29</v>
       </c>
       <c r="I200" s="0" t="n">
-        <v>31</v>
+        <v>65</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="201">
@@ -6661,25 +6661,25 @@
         <v>217</v>
       </c>
       <c r="C201" s="0" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="D201" s="0" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E201" s="0" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F201" s="0" t="n">
-        <v>202</v>
+        <v>595</v>
       </c>
       <c r="G201" s="0" t="n">
         <v>18</v>
       </c>
       <c r="H201" s="0" t="n">
-        <v>25.25</v>
+        <v>66.11</v>
       </c>
       <c r="I201" s="0" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="202">
@@ -6690,25 +6690,25 @@
         <v>218</v>
       </c>
       <c r="C202" s="0" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D202" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="E202" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="E202" s="0" t="n">
-        <v>5</v>
-      </c>
       <c r="F202" s="0" t="n">
-        <v>125</v>
+        <v>246</v>
       </c>
       <c r="G202" s="0" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="H202" s="0" t="n">
-        <v>17.86</v>
+        <v>30.75</v>
       </c>
       <c r="I202" s="0" t="n">
-        <v>30</v>
+        <v>52</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="203">
@@ -6728,16 +6728,16 @@
         <v>7</v>
       </c>
       <c r="F203" s="0" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G203" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H203" s="0" t="n">
-        <v>4.57</v>
+        <v>5.43</v>
       </c>
       <c r="I203" s="0" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="204">
@@ -6757,16 +6757,16 @@
         <v>6</v>
       </c>
       <c r="F204" s="0" t="n">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="G204" s="0" t="n">
         <v>15</v>
       </c>
       <c r="H204" s="0" t="n">
-        <v>14</v>
+        <v>14.83</v>
       </c>
       <c r="I204" s="0" t="n">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="205">
@@ -6786,16 +6786,16 @@
         <v>5</v>
       </c>
       <c r="F205" s="0" t="n">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="G205" s="0" t="n">
         <v>2</v>
       </c>
       <c r="H205" s="0" t="n">
-        <v>18.6</v>
+        <v>22.4</v>
       </c>
       <c r="I205" s="0" t="n">
-        <v>28</v>
+        <v>38</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="206">
@@ -6815,16 +6815,16 @@
         <v>5</v>
       </c>
       <c r="F206" s="0" t="n">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="G206" s="0" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H206" s="0" t="n">
-        <v>12</v>
+        <v>9.8</v>
       </c>
       <c r="I206" s="0" t="n">
-        <v>22</v>
+        <v>37</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="207">
@@ -6844,16 +6844,16 @@
         <v>4</v>
       </c>
       <c r="F207" s="0" t="n">
-        <v>238</v>
+        <v>269</v>
       </c>
       <c r="G207" s="0" t="n">
         <v>4</v>
       </c>
       <c r="H207" s="0" t="n">
-        <v>47.6</v>
+        <v>53.8</v>
       </c>
       <c r="I207" s="0" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="208">
@@ -6873,16 +6873,16 @@
         <v>5</v>
       </c>
       <c r="F208" s="0" t="n">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="G208" s="0" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H208" s="0" t="n">
-        <v>8.6</v>
+        <v>12.4</v>
       </c>
       <c r="I208" s="0" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="209">
@@ -6902,16 +6902,16 @@
         <v>4</v>
       </c>
       <c r="F209" s="0" t="n">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="G209" s="0" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H209" s="0" t="n">
-        <v>15.5</v>
+        <v>13.25</v>
       </c>
       <c r="I209" s="0" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="210">
@@ -6922,7 +6922,7 @@
         <v>226</v>
       </c>
       <c r="C210" s="0" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D210" s="0" t="n">
         <v>4</v>
@@ -6931,16 +6931,16 @@
         <v>4</v>
       </c>
       <c r="F210" s="0" t="n">
-        <v>44</v>
+        <v>268</v>
       </c>
       <c r="G210" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H210" s="0" t="n">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="I210" s="0" t="n">
-        <v>30</v>
+        <v>42</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="211">
@@ -6951,25 +6951,25 @@
         <v>227</v>
       </c>
       <c r="C211" s="0" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="D211" s="0" t="n">
         <v>4</v>
       </c>
       <c r="E211" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F211" s="0" t="n">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="G211" s="0" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H211" s="0" t="n">
-        <v>0</v>
+        <v>17.25</v>
       </c>
       <c r="I211" s="0" t="n">
-        <v>11</v>
+        <v>39</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="212">
@@ -6980,25 +6980,25 @@
         <v>228</v>
       </c>
       <c r="C212" s="0" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="D212" s="0" t="n">
         <v>4</v>
       </c>
       <c r="E212" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F212" s="0" t="n">
-        <v>244</v>
+        <v>0</v>
       </c>
       <c r="G212" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H212" s="0" t="n">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="I212" s="0" t="n">
-        <v>36</v>
+        <v>14</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="213">
@@ -7009,25 +7009,25 @@
         <v>229</v>
       </c>
       <c r="C213" s="0" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D213" s="0" t="n">
         <v>2</v>
       </c>
       <c r="E213" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F213" s="0" t="n">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="G213" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H213" s="0" t="n">
-        <v>9</v>
+        <v>22.5</v>
       </c>
       <c r="I213" s="0" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="214">
@@ -7038,25 +7038,25 @@
         <v>230</v>
       </c>
       <c r="C214" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D214" s="0" t="n">
         <v>2</v>
       </c>
       <c r="E214" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F214" s="0" t="n">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="G214" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H214" s="0" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="I214" s="0" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="215">
@@ -7067,7 +7067,7 @@
         <v>231</v>
       </c>
       <c r="C215" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D215" s="0" t="n">
         <v>2</v>
@@ -7076,16 +7076,16 @@
         <v>2</v>
       </c>
       <c r="F215" s="0" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G215" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H215" s="0" t="n">
-        <v>0.5</v>
+        <v>4.5</v>
       </c>
       <c r="I215" s="0" t="n">
-        <v>10</v>
+        <v>28</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="216">
@@ -7096,7 +7096,7 @@
         <v>232</v>
       </c>
       <c r="C216" s="0" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="D216" s="0" t="n">
         <v>2</v>
@@ -7105,16 +7105,16 @@
         <v>2</v>
       </c>
       <c r="F216" s="0" t="n">
-        <v>159</v>
+        <v>1</v>
       </c>
       <c r="G216" s="0" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H216" s="0" t="n">
-        <v>79.5</v>
+        <v>0.5</v>
       </c>
       <c r="I216" s="0" t="n">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="217">
@@ -7125,7 +7125,7 @@
         <v>233</v>
       </c>
       <c r="C217" s="0" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D217" s="0" t="n">
         <v>2</v>
@@ -7134,16 +7134,16 @@
         <v>2</v>
       </c>
       <c r="F217" s="0" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G217" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H217" s="0" t="n">
-        <v>4.5</v>
+        <v>1.5</v>
       </c>
       <c r="I217" s="0" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="218">
@@ -7154,7 +7154,7 @@
         <v>234</v>
       </c>
       <c r="C218" s="0" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="D218" s="0" t="n">
         <v>2</v>
@@ -7163,16 +7163,16 @@
         <v>2</v>
       </c>
       <c r="F218" s="0" t="n">
-        <v>2</v>
+        <v>177</v>
       </c>
       <c r="G218" s="0" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H218" s="0" t="n">
-        <v>1</v>
+        <v>88.5</v>
       </c>
       <c r="I218" s="0" t="n">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="219">
@@ -7183,25 +7183,25 @@
         <v>235</v>
       </c>
       <c r="C219" s="0" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D219" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E219" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F219" s="0" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="G219" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H219" s="0" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="I219" s="0" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="220">
@@ -7212,7 +7212,7 @@
         <v>236</v>
       </c>
       <c r="C220" s="0" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="D220" s="0" t="n">
         <v>1</v>
@@ -7221,16 +7221,16 @@
         <v>1</v>
       </c>
       <c r="F220" s="0" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G220" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H220" s="0" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="I220" s="0" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="221">
@@ -7250,16 +7250,16 @@
         <v>1</v>
       </c>
       <c r="F221" s="0" t="n">
-        <v>83</v>
+        <v>1</v>
       </c>
       <c r="G221" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H221" s="0" t="n">
-        <v>83</v>
+        <v>1</v>
       </c>
       <c r="I221" s="0" t="n">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="222">
@@ -7270,7 +7270,7 @@
         <v>238</v>
       </c>
       <c r="C222" s="0" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="D222" s="0" t="n">
         <v>1</v>
@@ -7279,16 +7279,16 @@
         <v>1</v>
       </c>
       <c r="F222" s="0" t="n">
-        <v>1</v>
+        <v>246</v>
       </c>
       <c r="G222" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H222" s="0" t="n">
-        <v>1</v>
+        <v>246</v>
       </c>
       <c r="I222" s="0" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="223">
@@ -7299,7 +7299,7 @@
         <v>239</v>
       </c>
       <c r="C223" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D223" s="0" t="n">
         <v>1</v>
@@ -7328,13 +7328,13 @@
         <v>240</v>
       </c>
       <c r="C224" s="0" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D224" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E224" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F224" s="0" t="n">
         <v>0</v>
@@ -7346,7 +7346,7 @@
         <v>0</v>
       </c>
       <c r="I224" s="0" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="225">
@@ -7357,25 +7357,25 @@
         <v>241</v>
       </c>
       <c r="C225" s="0" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="D225" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E225" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F225" s="0" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="G225" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H225" s="0" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="I225" s="0" t="n">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="226">
@@ -7386,25 +7386,25 @@
         <v>242</v>
       </c>
       <c r="C226" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D226" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E226" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F226" s="0" t="n">
-        <v>201</v>
+        <v>5</v>
       </c>
       <c r="G226" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H226" s="0" t="n">
-        <v>201</v>
+        <v>5</v>
       </c>
       <c r="I226" s="0" t="n">
-        <v>13</v>
+        <v>29</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="227">
@@ -7415,7 +7415,7 @@
         <v>243</v>
       </c>
       <c r="C227" s="0" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="D227" s="0" t="n">
         <v>1</v>
@@ -7424,16 +7424,16 @@
         <v>1</v>
       </c>
       <c r="F227" s="0" t="n">
-        <v>29</v>
+        <v>96</v>
       </c>
       <c r="G227" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H227" s="0" t="n">
-        <v>29</v>
+        <v>96</v>
       </c>
       <c r="I227" s="0" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="228">
@@ -7444,7 +7444,7 @@
         <v>244</v>
       </c>
       <c r="C228" s="0" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="D228" s="0" t="n">
         <v>1</v>
@@ -7453,16 +7453,16 @@
         <v>1</v>
       </c>
       <c r="F228" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G228" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H228" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I228" s="0" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
